--- a/Dataset/Captions collection/v5_train_captions_collection.xlsx
+++ b/Dataset/Captions collection/v5_train_captions_collection.xlsx
@@ -753,7 +753,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>The shown line chart illustrates TKN_About values about total hardwood in TKN_Geo during TKN_Year.</t>
+          <t>The shown line chart illustrates the TKN_About hardwood in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y4" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>The production is described using cubic metres as unit of measure.</t>
+          <t>The production is described using TKN_UOM as unit of measure.</t>
         </is>
       </c>
       <c r="Y5" t="n">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>This figure depicts the total Canadian TKN_About in cubic metres of TKN_Year.</t>
+          <t>This figure depicts the TKN_About in TKN_UOM of TKN_Year.</t>
         </is>
       </c>
       <c r="Y9" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Whereas it starts off in January at approximately 63 cubic TKN_About fluctuates until reaching its maximum in May at around 104.</t>
+          <t>Whereas it starts off in January at approximately TKN_UOM TKN_About fluctuates until reaching its maximum in May at around 104.</t>
         </is>
       </c>
       <c r="Y10" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>There is a sudden drop, reaching the minimum annual value in July at below 11 cubic metres.</t>
+          <t>There is a sudden drop, reaching the minimum annual value in July at below TKN_UOM metres.</t>
         </is>
       </c>
       <c r="Y11" t="n">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>The production values have been described using cubic metres as unit of measure.</t>
+          <t>The production values have been described using TKN_UOM as unit of measure.</t>
         </is>
       </c>
       <c r="Y14" t="n">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>While production varied between less than 11 cubic metres and over 99 cubic metres in a given month, there do not seem to be any trends in the value over time.</t>
+          <t>While production varied between less than 11 TKN_UOM and over 99 TKN_UOM in a given month, there do not seem to be any trends in the value over time.</t>
         </is>
       </c>
       <c r="Y19" t="n">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>The graph is showing the production's trend of total hardwood in TKN_Geo during TKN_Year.</t>
+          <t>The graph is showing the production's trend TKN_About hardwood in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>The values are in cubic metres.</t>
+          <t>The values are TKN_UOM metres.</t>
         </is>
       </c>
       <c r="Y21" t="n">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>This line chart depicts the total TKN_About in cubic metres of TKN_Geo in TKN_Year.</t>
+          <t>This line chart depicts the TKN_About in TKN_UOM of TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y25" t="n">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Production starts at approximately 59 cubic metres during January, after which a moderate increase can be observed until reaching about 95 in March.</t>
+          <t>Production starts at approximately 59 TKN_UOM during January, after which a moderate increase can be observed until reaching about 95 in March.</t>
         </is>
       </c>
       <c r="Y26" t="n">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Production remains steady at 73 during April and May, after which the TKN_About is achieved in June with 99 cubic metres.</t>
+          <t>Production remains steady at 73 during April and May, after which the maximum production is achieved in June with TKN_UOM metres.</t>
         </is>
       </c>
       <c r="Y27" t="n">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>The following line chart describes TKN_About values of total hardwood in TKN_Geo during TKN_Year.</t>
+          <t>The following line chart describes the TKN_About hardwood in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y29" t="n">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>The unit of measurement of the data is cubic metres.</t>
+          <t>The unit of measurement of the data TKN_UOM metres.</t>
         </is>
       </c>
       <c r="Y30" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>In this graph, one can see the total TKN_About in TKN_Geo.</t>
+          <t>In this graph, one can see the TKN_About in TKN_Geo.</t>
         </is>
       </c>
       <c r="Y37" t="n">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Production of TKN_Year is measured in cubic meters.</t>
+          <t>Production of TKN_Year is measured TKN_UOM meters.</t>
         </is>
       </c>
       <c r="Y38" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>It stayed at TKN_About about 97 cubic meters except for two dips in July with 34 cubic meters and December with below 7 cubic meters.</t>
+          <t>It stayed at TKN_About about TKN_UOM meters except for two dips in July with 34 cubic meters and December with below 7 cubic meters.</t>
         </is>
       </c>
       <c r="Y41" t="n">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>This graph depicts the total Canadian TKN_About of TKN_Year.</t>
+          <t>This graph depicts the TKN_About of TKN_Year.</t>
         </is>
       </c>
       <c r="Y42" t="n">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>The unit used is cubic metres.</t>
+          <t>The unit used TKN_UOM metres.</t>
         </is>
       </c>
       <c r="Y43" t="n">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Production during January lies TKN_About experiences an increase until reaching the maximum value in March at above 99.</t>
+          <t>Production during January lies at approximately 61 and experiences an increase until reaching the maximum value in March at above 99.</t>
         </is>
       </c>
       <c r="Y44" t="n">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>There is a TKN_About in December, which marks the lowest production of the year at -2 cubic metres.</t>
+          <t>There is a TKN_About in December, which marks the lowest production of the year at TKN_UOM metres.</t>
         </is>
       </c>
       <c r="Y47" t="n">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>The graphs shows the total TKN_About in TKN_Geo in the year TKN_Year.</t>
+          <t>The graphs shows the TKN_About in TKN_Geo in the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y50" t="n">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Initially, the value falls to February before TKN_About reaching a maximum of over 60,000 cubic meters.</t>
+          <t>Initially, the value falls to February before TKN_About reaching a maximum of over TKN_UOM meters.</t>
         </is>
       </c>
       <c r="Y52" t="n">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>The total TKN_About in TKN_Geo showed an oscillating trend over TKN_Year.</t>
+          <t>The TKN_About in TKN_Geo showed an oscillating trend over TKN_Year.</t>
         </is>
       </c>
       <c r="Y55" t="n">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>The image reports a line chart about the total TKN_About (in cubic metres) in Canda during TKN_Year.</t>
+          <t>The image reports a line chart about the TKN_About TKN_UOM metres) in Canda during TKN_Year.</t>
         </is>
       </c>
       <c r="Y59" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>The described values are in cubic metres.</t>
+          <t>The described values are TKN_UOM metres.</t>
         </is>
       </c>
       <c r="Y63" t="n">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>The total TKN_About in TKN_Geo has been strongly fluctuating over TKN_Year.</t>
+          <t>The TKN_About in TKN_Geo has been strongly fluctuating over TKN_Year.</t>
         </is>
       </c>
       <c r="Y66" t="n">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>The graph indicates the number of cubic meters of soft TKN_About in TKN_Geo for TKN_Year.</t>
+          <t>The graph indicates the number TKN_UOM meters of soft TKN_About in TKN_Geo for TKN_Year.</t>
         </is>
       </c>
       <c r="Y70" t="n">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Total softwood production in cubic meters in TKN_Geo in TKN_Year is shown in the graph.</t>
+          <t>Total softwood production TKN_UOM meters in TKN_Geo in TKN_Year is shown in the graph.</t>
         </is>
       </c>
       <c r="Y72" t="n">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>This graph depicts the total Canadian TKN_About in cubic metres in TKN_Year.</t>
+          <t>This graph depicts the TKN_About in TKN_UOM in TKN_Year.</t>
         </is>
       </c>
       <c r="Y76" t="n">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>The unit given is cubic metres.</t>
+          <t>The unit given TKN_UOM metres.</t>
         </is>
       </c>
       <c r="Y77" t="n">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>The data is presented in cubic meters.</t>
+          <t>The data is presented TKN_UOM meters.</t>
         </is>
       </c>
       <c r="Y83" t="n">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>The total TKN_About in TKN_Geo during TKN_Year considerably oscillated up and down over the year.</t>
+          <t>The TKN_About in TKN_Geo during TKN_Year considerably oscillated up and down over the year.</t>
         </is>
       </c>
       <c r="Y87" t="n">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>The minimum value over the whole TKN_Year was during December TKN_Year, with less than 9 cubic metres producted.</t>
+          <t>The minimum value over the whole TKN_Year was during December TKN_Year, with less than 9 TKN_UOM producted.</t>
         </is>
       </c>
       <c r="Y90" t="n">
@@ -8673,7 +8673,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>The total rose from slightly over 66 cubic meters in January to over 97 cubic meters in April.</t>
+          <t>The total rose from slightly over TKN_UOM meters in January to over 97 cubic meters in April.</t>
         </is>
       </c>
       <c r="Y92" t="n">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>It then experienced a drop to less than 24 cubic meters from May to July, after which it continued to decline until reaching a minimum level in December of under 4 cubic meters.</t>
+          <t>It then experienced a drop to less than TKN_UOM meters from May to July, after which it continued to decline until reaching a minimum level in December of under 4 cubic meters.</t>
         </is>
       </c>
       <c r="Y93" t="n">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>It illustrates the TKN_About hardwood in TKN_Geo during TKN_Year using cubic metres as unit of measurement.</t>
+          <t>It illustrates the TKN_About hardwood in TKN_Geo during TKN_Year using TKN_UOM as unit of measurement.</t>
         </is>
       </c>
       <c r="Y94" t="n">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>The following line chart is about the house TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The following line chart is about TKN_About TKN_UOM in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y102" t="n">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>From the graph it's clearly possible to TKN_About values have been steadily growing during TKN_Year.</t>
+          <t>From the graph it's clearly possible to see how TKN_UOM values have been steadily growing during TKN_Year.</t>
         </is>
       </c>
       <c r="Y103" t="n">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>Line chart showing the increase of the TKN_About in TKN_Year in TKN_Geo.</t>
+          <t>Line chart showing the increase of TKN_About TKN_UOM in TKN_Year in TKN_Geo.</t>
         </is>
       </c>
       <c r="Y105" t="n">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>It's clearly possible to see how the house TKN_About in TKN_Geo has been slowly but constantly increasing over TKN_Year.</t>
+          <t>It's clearly possible to see how TKN_About TKN_UOM in TKN_Geo has been slowly but constantly increasing over TKN_Year.</t>
         </is>
       </c>
       <c r="Y106" t="n">
@@ -10113,7 +10113,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>The graph shows the values of TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The graph shows the values TKN_About TKN_UOM in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y108" t="n">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>The graph shows the house TKN_About increasing over the year.</t>
+          <t>The graph shows TKN_About TKN_UOM increasing over the year.</t>
         </is>
       </c>
       <c r="Y111" t="n">
@@ -10563,7 +10563,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>The graph indicates the house TKN_About in canada in the year TKN_Year.</t>
+          <t>The graph indicates TKN_About TKN_UOM in canada in the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y113" t="n">
@@ -10653,7 +10653,7 @@
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>As shown TKN_About increases during the hole year until he reaches the maximum of 100 in December.</t>
+          <t>As shown TKN_UOM increases during the hole year until he reaches the maximum of 100 in December.</t>
         </is>
       </c>
       <c r="Y114" t="n">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>This chart illustrates the land TKN_About of TKN_Geo in TKN_Year.</t>
+          <t>This chart illustrates TKN_About TKN_UOM of TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y116" t="n">
@@ -11193,7 +11193,7 @@
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>This line graph displays the land TKN_About in TKN_Geo for TKN_Year.</t>
+          <t>This line graph displays TKN_About TKN_UOM in TKN_Geo for TKN_Year.</t>
         </is>
       </c>
       <c r="Y120" t="n">
@@ -11463,7 +11463,7 @@
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>The land TKN_About in TKN_Geo during TKN_Year has been showing a slight but constant ascendant trend.</t>
+          <t>The land TKN_UOM in TKN_Geo during TKN_Year has been showing a slight but constant ascendant trend.</t>
         </is>
       </c>
       <c r="Y123" t="n">
@@ -11553,7 +11553,7 @@
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>In particular, from January to April TKN_About value remained exactly the same.</t>
+          <t>In particular, from January to April TKN_UOM value remained exactly the same.</t>
         </is>
       </c>
       <c r="Y124" t="n">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>This line chart depicts the house TKN_About of houses in TKN_Geo in TKN_Year.</t>
+          <t>This line chart depicts TKN_About TKN_UOM of houses in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y127" t="n">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>Increase of house TKN_About during TKN_Year months per months.</t>
+          <t>Increase TKN_About TKN_UOM during TKN_Year months per months.</t>
         </is>
       </c>
       <c r="Y132" t="n">
@@ -12363,7 +12363,7 @@
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>This is a line graph showing the TKN_Year house TKN_About in TKN_Geo.</t>
+          <t>This is a line graph showing the TKN_About TKN_UOM in TKN_Geo.</t>
         </is>
       </c>
       <c r="Y133" t="n">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="X135" t="inlineStr">
         <is>
-          <t>The graph shows the land TKN_About (index 347) in TKN_Geo in TKN_Year.</t>
+          <t>The graph shows TKN_About TKN_UOM (index 347) in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y135" t="n">
@@ -12993,7 +12993,7 @@
       </c>
       <c r="X140" t="inlineStr">
         <is>
-          <t>The graph shows the land TKN_About development in TKN_Geo in TKN_Year.</t>
+          <t>The graph shows TKN_About TKN_UOM development in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y140" t="n">
@@ -13263,7 +13263,7 @@
       </c>
       <c r="X143" t="inlineStr">
         <is>
-          <t>The graph shows how the land TKN_About in TKN_Geo rapidly increased during TKN_Year.</t>
+          <t>The graph shows how TKN_About TKN_UOM in TKN_Geo rapidly increased during TKN_Year.</t>
         </is>
       </c>
       <c r="Y143" t="n">
@@ -13533,7 +13533,7 @@
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>The following chart provides information about the house TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The following chart provides information about TKN_About TKN_UOM in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y146" t="n">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>It's clearly possible to see how the TKN_About February.</t>
+          <t>It's clearly possible to see how TKN_UOM value significantly dropped TKN_About February.</t>
         </is>
       </c>
       <c r="Y147" t="n">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>Over the next TKN_About value remained stable.</t>
+          <t>Over the next few months TKN_UOM value remained stable.</t>
         </is>
       </c>
       <c r="Y148" t="n">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="X150" t="inlineStr">
         <is>
-          <t>From June TKN_About value maintained the same level.</t>
+          <t>From June to December TKN_UOM value maintained the same level.</t>
         </is>
       </c>
       <c r="Y150" t="n">
@@ -13983,7 +13983,7 @@
       </c>
       <c r="X151" t="inlineStr">
         <is>
-          <t>The given graph shows the house TKN_About development in TKN_Geo in the year TKN_Year, devided by month.</t>
+          <t>The given graph shows TKN_About TKN_UOM development in TKN_Geo in the year TKN_Year, devided by month.</t>
         </is>
       </c>
       <c r="Y151" t="n">
@@ -14163,7 +14163,7 @@
       </c>
       <c r="X153" t="inlineStr">
         <is>
-          <t>The graph shows the house TKN_About in canada in the year of TKN_Year.</t>
+          <t>The graph shows TKN_About TKN_UOM in canada in the year of TKN_Year.</t>
         </is>
       </c>
       <c r="Y153" t="n">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="X160" t="inlineStr">
         <is>
-          <t>The house TKN_About in TKN_Geo during TKN_Year presents a quite ambiguous trend.</t>
+          <t>The house TKN_UOM in TKN_Geo during TKN_Year presents a quite ambiguous trend.</t>
         </is>
       </c>
       <c r="Y160" t="n">
@@ -15063,7 +15063,7 @@
       </c>
       <c r="X163" t="inlineStr">
         <is>
-          <t>During the last few months of the year the house TKN_About mainted the same level.</t>
+          <t>During the last few months of the year TKN_About TKN_UOM mainted the same level.</t>
         </is>
       </c>
       <c r="Y163" t="n">
@@ -15153,7 +15153,7 @@
       </c>
       <c r="X164" t="inlineStr">
         <is>
-          <t>The land TKN_About for TKN_Geo during the year of TKN_Year increased from April to December.</t>
+          <t>The land TKN_UOM for TKN_Geo during the year of TKN_Year increased from April to December.</t>
         </is>
       </c>
       <c r="Y164" t="n">
@@ -15243,7 +15243,7 @@
       </c>
       <c r="X165" t="inlineStr">
         <is>
-          <t>The TKN_About plateaued during the months of March through April, June through August, September through October and November through December.</t>
+          <t>The TKN_UOM plateaued during the months of March through April, June through August, September through October and November through December.</t>
         </is>
       </c>
       <c r="Y165" t="n">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="X166" t="inlineStr">
         <is>
-          <t>Land Price Index in TKN_Geo in the year of TKN_Year.</t>
+          <t>Land TKN_UOM in TKN_Geo in the year of TKN_Year.</t>
         </is>
       </c>
       <c r="Y166" t="n">
@@ -15423,7 +15423,7 @@
       </c>
       <c r="X167" t="inlineStr">
         <is>
-          <t>The graphic shows the course of TKN_About Price Index in TKN_Geo over the year TKN_Year.</t>
+          <t>The graphic shows the course of TKN_About TKN_UOM in TKN_Geo over the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y167" t="n">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="X168" t="inlineStr">
         <is>
-          <t>It is noticeable that TKN_About initially remains constant for the beginning of the year and then rises sharply towards the end of the year.</t>
+          <t>It is noticeable that TKN_UOM initially remains constant for the beginning of the year and then rises sharply towards the end of the year.</t>
         </is>
       </c>
       <c r="Y168" t="n">
@@ -15693,7 +15693,7 @@
       </c>
       <c r="X170" t="inlineStr">
         <is>
-          <t>This figure represents the land TKN_About in TKN_Geo in TKN_Year.</t>
+          <t>This figure represents TKN_About TKN_UOM in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y170" t="n">
@@ -15783,7 +15783,7 @@
       </c>
       <c r="X171" t="inlineStr">
         <is>
-          <t>Overall the TKN_About increases throughout the year.</t>
+          <t>Overall the TKN_UOM increases throughout the year.</t>
         </is>
       </c>
       <c r="Y171" t="n">
@@ -16143,7 +16143,7 @@
       </c>
       <c r="X175" t="inlineStr">
         <is>
-          <t>During the following -25875 months there is a steady increase, after which the land TKN_About remains unchanged at 233825 throughout June until August.</t>
+          <t>During the following -25875 months there is a steady increase, after which TKN_About TKN_UOM remains unchanged at 233825 throughout June until August.</t>
         </is>
       </c>
       <c r="Y175" t="n">
@@ -16323,7 +16323,7 @@
       </c>
       <c r="X177" t="inlineStr">
         <is>
-          <t>Moreover, the land TKN_About stays constant at the peak value of the year during November and December, reaching up to 234325.</t>
+          <t>Moreover, TKN_About TKN_UOM stays constant at the peak value of the year during November and December, reaching up to 234325.</t>
         </is>
       </c>
       <c r="Y177" t="n">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="X178" t="inlineStr">
         <is>
-          <t>In the following graph is described the monthly supply TKN_About in tonnes about TKN_Geo during TKN_Year.</t>
+          <t>In the following graph is described the monthly TKN_About in TKN_UOM about TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y178" t="n">
@@ -16593,7 +16593,7 @@
       </c>
       <c r="X180" t="inlineStr">
         <is>
-          <t>Furthermore, it's possible to see how the supply TKN_About is generally higher during spring and summer.</t>
+          <t>Furthermore, it's possible to see how the TKN_About is generally higher during spring and summer.</t>
         </is>
       </c>
       <c r="Y180" t="n">
@@ -16683,7 +16683,7 @@
       </c>
       <c r="X181" t="inlineStr">
         <is>
-          <t>It shows the data about supply TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>It shows the data about TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y181" t="n">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="X185" t="inlineStr">
         <is>
-          <t>This graph represents the Canadian supply TKN_About (in tonnes) during TKN_Year.</t>
+          <t>This graph represents the Canadian TKN_About (in tonnes) during TKN_Year.</t>
         </is>
       </c>
       <c r="Y185" t="n">
@@ -17313,7 +17313,7 @@
       </c>
       <c r="X188" t="inlineStr">
         <is>
-          <t>There is a sharp decline in supply TKN_About from July until September.</t>
+          <t>There is a sharp decline in TKN_About from July until September.</t>
         </is>
       </c>
       <c r="Y188" t="n">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="X190" t="inlineStr">
         <is>
-          <t>This chart represents the supply TKN_About in tonnes of TKN_Geo in TKN_Year.</t>
+          <t>This chart represents the TKN_About in TKN_UOM of TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y190" t="n">
@@ -17673,7 +17673,7 @@
       </c>
       <c r="X192" t="inlineStr">
         <is>
-          <t>From then onwards the supply steadily increases until May with 92 tonnes.</t>
+          <t>From then TKN_About steadily increases until May with 92 tonnes.</t>
         </is>
       </c>
       <c r="Y192" t="n">
@@ -17763,7 +17763,7 @@
       </c>
       <c r="X193" t="inlineStr">
         <is>
-          <t>From May until July the supply is held about constant.</t>
+          <t>From May until TKN_About is held about constant.</t>
         </is>
       </c>
       <c r="Y193" t="n">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="X195" t="inlineStr">
         <is>
-          <t>From the graph is clear that the supply TKN_About had a significant jump from the month of February to April.</t>
+          <t>From the graph is clear that the TKN_About had a significant jump from the month of February to April.</t>
         </is>
       </c>
       <c r="Y195" t="n">
@@ -18033,7 +18033,7 @@
       </c>
       <c r="X196" t="inlineStr">
         <is>
-          <t>The values in the graph are described using tonnes TKN_About measurement.</t>
+          <t>The values in the graph are described using TKN_UOM TKN_About measurement.</t>
         </is>
       </c>
       <c r="Y196" t="n">
@@ -18393,7 +18393,7 @@
       </c>
       <c r="X200" t="inlineStr">
         <is>
-          <t>The data presented in the graph shows the supply TKN_About in TKN_Geo over the year of TKN_Year in tonnes.</t>
+          <t>The data presented in the graph shows the TKN_About in TKN_Geo over the year of TKN_Year in tonnes.</t>
         </is>
       </c>
       <c r="Y200" t="n">
@@ -18483,7 +18483,7 @@
       </c>
       <c r="X201" t="inlineStr">
         <is>
-          <t>The lowest supply TKN_About can be observed in January.</t>
+          <t>The lowest TKN_About can be observed in January.</t>
         </is>
       </c>
       <c r="Y201" t="n">
@@ -18663,7 +18663,7 @@
       </c>
       <c r="X203" t="inlineStr">
         <is>
-          <t>It's clearly possible to see how the supply TKN_About in TKN_Geo during TKN_Year rapidly increased from January over.</t>
+          <t>It's clearly possible to see how the TKN_About in TKN_Geo during TKN_Year rapidly increased from January over.</t>
         </is>
       </c>
       <c r="Y203" t="n">
@@ -19023,7 +19023,7 @@
       </c>
       <c r="X207" t="inlineStr">
         <is>
-          <t>It shows the supply TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>It shows the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y207" t="n">
@@ -19473,7 +19473,7 @@
       </c>
       <c r="X212" t="inlineStr">
         <is>
-          <t>The supply TKN_About fluctuated over the last few months of TKN_Year.</t>
+          <t>The TKN_About fluctuated over the last few months of TKN_Year.</t>
         </is>
       </c>
       <c r="Y212" t="n">
@@ -19563,7 +19563,7 @@
       </c>
       <c r="X213" t="inlineStr">
         <is>
-          <t>The following line chart is about the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The following line chart is about the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y213" t="n">
@@ -19743,7 +19743,7 @@
       </c>
       <c r="X215" t="inlineStr">
         <is>
-          <t>It shows how the production is actually falling down from January to August, when it reaches its minimum.</t>
+          <t>It shows TKN_About is actually falling down from January to August, when it reaches its minimum.</t>
         </is>
       </c>
       <c r="Y215" t="n">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="X219" t="inlineStr">
         <is>
-          <t>During the last TKN_About year, the production started to considerably grow again.</t>
+          <t>During the last few months TKN_About started to considerably grow again.</t>
         </is>
       </c>
       <c r="Y219" t="n">
@@ -20553,7 +20553,7 @@
       </c>
       <c r="X224" t="inlineStr">
         <is>
-          <t>A sharp increase TKN_About production is taking place from November onwards, reaching its maximum in January with almost 105 tonnes.</t>
+          <t>A sharp increase in TKN_About is taking place from November onwards, reaching its maximum in January with almost 105 tonnes.</t>
         </is>
       </c>
       <c r="Y224" t="n">
@@ -20643,7 +20643,7 @@
       </c>
       <c r="X225" t="inlineStr">
         <is>
-          <t>The graph showes production TKN_About in tonnes in the year TKN_Year.</t>
+          <t>The graph showes TKN_About in TKN_UOM in the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y225" t="n">
@@ -21363,7 +21363,7 @@
       </c>
       <c r="X233" t="inlineStr">
         <is>
-          <t>The production TKN_About reached its highest point in January of TKN_Year.</t>
+          <t>The TKN_About reached its highest point in January of TKN_Year.</t>
         </is>
       </c>
       <c r="Y233" t="n">
@@ -21543,7 +21543,7 @@
       </c>
       <c r="X235" t="inlineStr">
         <is>
-          <t>In the months following production steadily decreased until September.</t>
+          <t>In the TKN_About steadily decreased until September.</t>
         </is>
       </c>
       <c r="Y235" t="n">
@@ -21723,7 +21723,7 @@
       </c>
       <c r="X237" t="inlineStr">
         <is>
-          <t>A line chart about the TKN_About per tonnes in TKN_Geo in the year TKN_Year.</t>
+          <t>A line chart about the TKN_About per TKN_UOM in TKN_Geo in the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y237" t="n">
@@ -21903,7 +21903,7 @@
       </c>
       <c r="X239" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo reported a not homogeneous trend over TKN_Year.</t>
+          <t>The TKN_About in TKN_Geo reported a not homogeneous trend over TKN_Year.</t>
         </is>
       </c>
       <c r="Y239" t="n">
@@ -22623,7 +22623,7 @@
       </c>
       <c r="X247" t="inlineStr">
         <is>
-          <t>The graph shows the import TKN_About (month vs.</t>
+          <t>The graph shows the TKN_About (month vs.</t>
         </is>
       </c>
       <c r="Y247" t="n">
@@ -22983,7 +22983,7 @@
       </c>
       <c r="X251" t="inlineStr">
         <is>
-          <t>It's possible to see how the import value TKN_About in TKN_Geo presented several fluctuations over the year.</t>
+          <t>It's possible to see how the TKN_About in TKN_Geo presented several fluctuations over the year.</t>
         </is>
       </c>
       <c r="Y251" t="n">
@@ -23433,7 +23433,7 @@
       </c>
       <c r="X256" t="inlineStr">
         <is>
-          <t>The graph describes the import TKN_About (in tonnes) in TKN_Geo during TKN_Year.</t>
+          <t>The graph describes the TKN_About (in tonnes) in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y256" t="n">
@@ -23793,7 +23793,7 @@
       </c>
       <c r="X260" t="inlineStr">
         <is>
-          <t>This graph illustrates the Canadian import TKN_About in TKN_Year.</t>
+          <t>This graph illustrates the Canadian TKN_About in TKN_Year.</t>
         </is>
       </c>
       <c r="Y260" t="n">
@@ -23973,7 +23973,7 @@
       </c>
       <c r="X262" t="inlineStr">
         <is>
-          <t>Import reaches its maximum of over 97 tonnes during June and its second highes import during the month of March with approximately 79.</t>
+          <t>Import reaches its maximum of over 97 TKN_UOM during June and its second highes import during the month of March with approximately 79.</t>
         </is>
       </c>
       <c r="Y262" t="n">
@@ -24063,7 +24063,7 @@
       </c>
       <c r="X263" t="inlineStr">
         <is>
-          <t>After June the import drastically decreases until reaching TKN_About approximately 3 in September.</t>
+          <t>After TKN_About drastically decreases until reaching a minimum of approximately 3 in September.</t>
         </is>
       </c>
       <c r="Y263" t="n">
@@ -24153,7 +24153,7 @@
       </c>
       <c r="X264" t="inlineStr">
         <is>
-          <t>From TKN_About September until February the import oscillates between approximately 3 and 34.</t>
+          <t>From the months TKN_About oscillates between approximately 3 and 34.</t>
         </is>
       </c>
       <c r="Y264" t="n">
@@ -24693,7 +24693,7 @@
       </c>
       <c r="X270" t="inlineStr">
         <is>
-          <t>Imports were higher overall during the TKN_About the year; however, the most noticeable feature is the sharp rise to a maximum value of over 92 tonnes in June, followed by an equally sharp drop to a minimum value of less than 7 tonnes in July.</t>
+          <t>Imports were higher overall during the TKN_About the year; however, the most noticeable feature is the sharp rise to a maximum value of over 92 TKN_UOM in June, followed by an equally sharp drop to a minimum value of less than 7 TKN_UOM in July.</t>
         </is>
       </c>
       <c r="Y270" t="n">
@@ -24963,7 +24963,7 @@
       </c>
       <c r="X273" t="inlineStr">
         <is>
-          <t>During June and July has been recorded a TKN_About the import value.</t>
+          <t>During June and July has been recorded a massive drop TKN_About value.</t>
         </is>
       </c>
       <c r="Y273" t="n">
@@ -25233,7 +25233,7 @@
       </c>
       <c r="X276" t="inlineStr">
         <is>
-          <t>The following line chart provides useful information about the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The following line chart provides useful information about the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y276" t="n">
@@ -25323,7 +25323,7 @@
       </c>
       <c r="X277" t="inlineStr">
         <is>
-          <t>The production value is quantified TKN_About units producted.</t>
+          <t>The TKN_About TKN_UOM producted.</t>
         </is>
       </c>
       <c r="Y277" t="n">
@@ -25413,7 +25413,7 @@
       </c>
       <c r="X278" t="inlineStr">
         <is>
-          <t>During the first few months TKN_About production rapidly increased, reaching the maximum value over TKN_Year in March.</t>
+          <t>During the first few months TKN_About rapidly increased, reaching the maximum value over TKN_Year in March.</t>
         </is>
       </c>
       <c r="Y278" t="n">
@@ -25503,7 +25503,7 @@
       </c>
       <c r="X279" t="inlineStr">
         <is>
-          <t>After that, over the next few months, the production TKN_About slightly decreased until the end of the year.</t>
+          <t>After that, over the next few months, the TKN_About slightly decreased until the end of the year.</t>
         </is>
       </c>
       <c r="Y279" t="n">
@@ -25593,7 +25593,7 @@
       </c>
       <c r="X280" t="inlineStr">
         <is>
-          <t>This graph represents the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>This graph represents the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y280" t="n">
@@ -25953,7 +25953,7 @@
       </c>
       <c r="X284" t="inlineStr">
         <is>
-          <t>As it's shown in the graph, the production TKN_About in TKN_Geo during TKN_Year rapidly increased fom January to April.</t>
+          <t>As it's shown in the graph, the TKN_About in TKN_Geo during TKN_Year rapidly increased fom January to April.</t>
         </is>
       </c>
       <c r="Y284" t="n">
@@ -26313,7 +26313,7 @@
       </c>
       <c r="X288" t="inlineStr">
         <is>
-          <t>The graph indicates much lower production during the winter months, with January, February and December totals more than -77 units lower than any point during TKN_About year.</t>
+          <t>The graph indicates much lower production during the winter months, with January, February and December totals more than -77 TKN_UOM lower than any point during TKN_About year.</t>
         </is>
       </c>
       <c r="Y288" t="n">
@@ -26403,7 +26403,7 @@
       </c>
       <c r="X289" t="inlineStr">
         <is>
-          <t>While the total peaked in may at 100 units, it was consistently above 62 units from March until September.</t>
+          <t>While the total peaked in may at 100 TKN_UOM, it was consistently above 62 TKN_UOM from March until September.</t>
         </is>
       </c>
       <c r="Y289" t="n">
@@ -26763,7 +26763,7 @@
       </c>
       <c r="X293" t="inlineStr">
         <is>
-          <t>The following line chart is about the production TKN_About (units) in TKN_Geo during TKN_Year.</t>
+          <t>The following line chart is about the TKN_About (units) in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y293" t="n">
@@ -27033,7 +27033,7 @@
       </c>
       <c r="X296" t="inlineStr">
         <is>
-          <t>A line chart about TKN_About per units in TKN_Geo in the year TKN_Year.</t>
+          <t>A line chart about TKN_About per TKN_UOM in TKN_Geo in the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y296" t="n">
@@ -27213,7 +27213,7 @@
       </c>
       <c r="X298" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo in TKN_Year rose sharply until May, from 2 to 100 units.</t>
+          <t>The TKN_About in TKN_Geo in TKN_Year rose sharply until May, from 2 to 100 units.</t>
         </is>
       </c>
       <c r="Y298" t="n">
@@ -27753,7 +27753,7 @@
       </c>
       <c r="X304" t="inlineStr">
         <is>
-          <t>A Graph showing the production TKN_About by TKN_Geo in TKN_Year.</t>
+          <t>A Graph showing the TKN_About by TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y304" t="n">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="X305" t="inlineStr">
         <is>
-          <t>As you can see the production had a big climbing in Q1 TKN_Year.</t>
+          <t>As you TKN_About had a big climbing in Q1 TKN_Year.</t>
         </is>
       </c>
       <c r="Y305" t="n">
@@ -28113,7 +28113,7 @@
       </c>
       <c r="X308" t="inlineStr">
         <is>
-          <t>The chart represents the production TKN_About (month vs.</t>
+          <t>The chart represents the TKN_About (month vs.</t>
         </is>
       </c>
       <c r="Y308" t="n">
@@ -28473,7 +28473,7 @@
       </c>
       <c r="X312" t="inlineStr">
         <is>
-          <t>The graphic shows the production TKN_About ($) in TKN_Geo over the year TKN_Year.</t>
+          <t>The graphic shows the TKN_About ($) in TKN_Geo over the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y312" t="n">
@@ -28653,7 +28653,7 @@
       </c>
       <c r="X314" t="inlineStr">
         <is>
-          <t>This line chart represents the Canadian production TKN_About in dollars in TKN_Year.</t>
+          <t>This line chart represents the Canadian TKN_About in TKN_UOM in TKN_Year.</t>
         </is>
       </c>
       <c r="Y314" t="n">
@@ -28743,7 +28743,7 @@
       </c>
       <c r="X315" t="inlineStr">
         <is>
-          <t>The year starts with a TKN_About -1 dollars in January and gradually increases until reaching its maximum in May with approximately 98.</t>
+          <t>The year starts with a TKN_About -1 TKN_UOM in January and gradually increases until reaching its maximum in May with approximately 98.</t>
         </is>
       </c>
       <c r="Y315" t="n">
@@ -28833,7 +28833,7 @@
       </c>
       <c r="X316" t="inlineStr">
         <is>
-          <t>From May onwards the production starts fluctuating, having a low in July, but also an increased production in September.</t>
+          <t>From TKN_About starts fluctuating, having a low in July, but also an increased production in September.</t>
         </is>
       </c>
       <c r="Y316" t="n">
@@ -28923,7 +28923,7 @@
       </c>
       <c r="X317" t="inlineStr">
         <is>
-          <t>In the following three months a constant drop is observed, TKN_About 24 dollars in December.</t>
+          <t>In the following three months a constant drop is observed, TKN_About 24 TKN_UOM in December.</t>
         </is>
       </c>
       <c r="Y317" t="n">
@@ -29283,7 +29283,7 @@
       </c>
       <c r="X321" t="inlineStr">
         <is>
-          <t>After that, the production TKN_About slightly started to decline, reaching a dip during the month of December TKN_Year.</t>
+          <t>After that, the TKN_About slightly started to decline, reaching a dip during the month of December TKN_Year.</t>
         </is>
       </c>
       <c r="Y321" t="n">
@@ -29373,7 +29373,7 @@
       </c>
       <c r="X322" t="inlineStr">
         <is>
-          <t>The graph shows the production TKN_About in dollars in TKN_Geo during TKN_Year.</t>
+          <t>The graph shows the TKN_About in TKN_UOM in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y322" t="n">
@@ -29643,7 +29643,7 @@
       </c>
       <c r="X325" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo of TKN_Year is shown in this figure.</t>
+          <t>The TKN_About in TKN_Geo of TKN_Year is shown in this figure.</t>
         </is>
       </c>
       <c r="Y325" t="n">
@@ -29913,7 +29913,7 @@
       </c>
       <c r="X328" t="inlineStr">
         <is>
-          <t>Following this production experiences a sharp increase, until TKN_About approximately 0-118 in May.</t>
+          <t>Following this production experiences a sharp increase, until reaching its maximum of approximately 0-118 in May.</t>
         </is>
       </c>
       <c r="Y328" t="n">
@@ -30183,7 +30183,7 @@
       </c>
       <c r="X331" t="inlineStr">
         <is>
-          <t>The following line chart is decribing the trend of the total TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The following line chart is decribing the trend of TKN_UOM in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y331" t="n">
@@ -30273,7 +30273,7 @@
       </c>
       <c r="X332" t="inlineStr">
         <is>
-          <t>The values are described using the TKN_About (FPPI).</t>
+          <t>The values are described using TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y332" t="n">
@@ -30633,7 +30633,7 @@
       </c>
       <c r="X336" t="inlineStr">
         <is>
-          <t>This chart shows how the Canadian total TKN_About varies by month throughout TKN_Year.</t>
+          <t>This chart shows how the TKN_UOM varies by month throughout TKN_Year.</t>
         </is>
       </c>
       <c r="Y336" t="n">
@@ -30903,7 +30903,7 @@
       </c>
       <c r="X339" t="inlineStr">
         <is>
-          <t>This graph illustrates values about the total TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>This graph illustrates values about TKN_UOM in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y339" t="n">
@@ -30993,7 +30993,7 @@
       </c>
       <c r="X340" t="inlineStr">
         <is>
-          <t>Those values are described using the TKN_About (FPPI).</t>
+          <t>Those values are described using TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y340" t="n">
@@ -31353,7 +31353,7 @@
       </c>
       <c r="X344" t="inlineStr">
         <is>
-          <t>The line chart is describing the values about TKN_About grains in TKN_Geo during TKN_Year.</t>
+          <t>The line chart is describing the values about TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y344" t="n">
@@ -31443,7 +31443,7 @@
       </c>
       <c r="X345" t="inlineStr">
         <is>
-          <t>The production amout is described using the farm product price index (FPPI).</t>
+          <t>The production amout is described using TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y345" t="n">
@@ -31803,7 +31803,7 @@
       </c>
       <c r="X349" t="inlineStr">
         <is>
-          <t>Graph elucidates the grain production in the year TKN_Year.</t>
+          <t>Graph elucidates the TKN_About in the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y349" t="n">
@@ -31983,7 +31983,7 @@
       </c>
       <c r="X351" t="inlineStr">
         <is>
-          <t>The TKN_About grains in TKN_Geo during TKN_Year reported several fluctations.</t>
+          <t>The TKN_About in TKN_Geo during TKN_Year reported several fluctations.</t>
         </is>
       </c>
       <c r="Y351" t="n">
@@ -32253,7 +32253,7 @@
       </c>
       <c r="X354" t="inlineStr">
         <is>
-          <t>The shown line chart provides information about the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The shown line chart provides information about the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y354" t="n">
@@ -32343,7 +32343,7 @@
       </c>
       <c r="X355" t="inlineStr">
         <is>
-          <t>The values are described using the farm product price index (FPPI).</t>
+          <t>The values are described using TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y355" t="n">
@@ -32523,7 +32523,7 @@
       </c>
       <c r="X357" t="inlineStr">
         <is>
-          <t>Then the TKN_About production remain quite stable during the year.</t>
+          <t>Then the overall TKN_About remain quite stable during the year.</t>
         </is>
       </c>
       <c r="Y357" t="n">
@@ -32883,7 +32883,7 @@
       </c>
       <c r="X361" t="inlineStr">
         <is>
-          <t>The values about production TKN_About in TKN_Geo during TKN_Year show a quite interesting trend.</t>
+          <t>The values about TKN_About in TKN_Geo during TKN_Year show a quite interesting trend.</t>
         </is>
       </c>
       <c r="Y361" t="n">
@@ -32973,7 +32973,7 @@
       </c>
       <c r="X362" t="inlineStr">
         <is>
-          <t>The production remained stable TKN_About the year.</t>
+          <t>The TKN_About the year.</t>
         </is>
       </c>
       <c r="Y362" t="n">
@@ -33063,7 +33063,7 @@
       </c>
       <c r="X363" t="inlineStr">
         <is>
-          <t>But two TKN_About production have been recorded, one in March and one in August.</t>
+          <t>But two big TKN_About have been recorded, one in March and one in August.</t>
         </is>
       </c>
       <c r="Y363" t="n">
@@ -33243,7 +33243,7 @@
       </c>
       <c r="X365" t="inlineStr">
         <is>
-          <t>The month with less production was December.</t>
+          <t>The month TKN_About was December.</t>
         </is>
       </c>
       <c r="Y365" t="n">
@@ -33333,7 +33333,7 @@
       </c>
       <c r="X366" t="inlineStr">
         <is>
-          <t>The graph shows the production TKN_About in TKN_Geo for the year fo TKN_Year.</t>
+          <t>The graph shows the TKN_About in TKN_Geo for the year fo TKN_Year.</t>
         </is>
       </c>
       <c r="Y366" t="n">
@@ -33423,7 +33423,7 @@
       </c>
       <c r="X367" t="inlineStr">
         <is>
-          <t>The graph shows production steadily increasing till October and then declines in the months after.</t>
+          <t>The TKN_About steadily increasing till October and then declines in the months after.</t>
         </is>
       </c>
       <c r="Y367" t="n">
@@ -33513,7 +33513,7 @@
       </c>
       <c r="X368" t="inlineStr">
         <is>
-          <t>It is important to note that production at TKN_About the year in December is much higher than it was beginning the year in January.</t>
+          <t>It is important to note that TKN_About the year in December is much higher than it was beginning the year in January.</t>
         </is>
       </c>
       <c r="Y368" t="n">
@@ -33603,7 +33603,7 @@
       </c>
       <c r="X369" t="inlineStr">
         <is>
-          <t>This line graph displays the production TKN_About in TKN_Geo for TKN_Year using the farm product price index.</t>
+          <t>This line graph displays the TKN_About in TKN_Geo for TKN_Year TKN_UOM index.</t>
         </is>
       </c>
       <c r="Y369" t="n">
@@ -33783,7 +33783,7 @@
       </c>
       <c r="X371" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo increased constantly in TKN_Year (from 11 to 96 FPPI), with the exception of the October-December period when it decreased to 74.</t>
+          <t>The TKN_About in TKN_Geo increased constantly in TKN_Year (from 11 to 96 FPPI), with the exception of the October-December period when it decreased to 74.</t>
         </is>
       </c>
       <c r="Y371" t="n">
@@ -33873,7 +33873,7 @@
       </c>
       <c r="X372" t="inlineStr">
         <is>
-          <t>Production of fresh vegetables for TKN_Year in whole TKN_Geo, represented by the farm product price index.</t>
+          <t>Production of fresh vegetables for TKN_Year in whole TKN_Geo, represented TKN_UOM index.</t>
         </is>
       </c>
       <c r="Y372" t="n">
@@ -33963,7 +33963,7 @@
       </c>
       <c r="X373" t="inlineStr">
         <is>
-          <t>It can be seen, that the production rises in the months from february until october and then drops.</t>
+          <t>It can be seen, TKN_About rises in the months from february until october and then drops.</t>
         </is>
       </c>
       <c r="Y373" t="n">
@@ -34053,7 +34053,7 @@
       </c>
       <c r="X374" t="inlineStr">
         <is>
-          <t>The line chart about fresh potato production in TKN_Geo, TKN_Year shows that there was a peak in the production during TKN_About June, July and August.</t>
+          <t>The line chart about TKN_About in TKN_Geo, TKN_Year shows that there was a peak in the production during the period of June, July and August.</t>
         </is>
       </c>
       <c r="Y374" t="n">
@@ -34233,7 +34233,7 @@
       </c>
       <c r="X376" t="inlineStr">
         <is>
-          <t>At TKN_About the year the production was growing until this boost in Summer.</t>
+          <t>At the beginning TKN_About was growing until this boost in Summer.</t>
         </is>
       </c>
       <c r="Y376" t="n">
@@ -34323,7 +34323,7 @@
       </c>
       <c r="X377" t="inlineStr">
         <is>
-          <t>This line graph displays the production TKN_About in TKN_Geo for TKN_Year using the farm product price index.</t>
+          <t>This line graph displays the TKN_About in TKN_Geo for TKN_Year TKN_UOM index.</t>
         </is>
       </c>
       <c r="Y377" t="n">
@@ -34593,7 +34593,7 @@
       </c>
       <c r="X380" t="inlineStr">
         <is>
-          <t>It's clearly possible to see from the graph that the production TKN_About in TKN_Geo during TKN_Year reached its maximum values during the summer months.</t>
+          <t>It's clearly possible to see from the graph that the TKN_About in TKN_Geo during TKN_Year reached its maximum values during the summer months.</t>
         </is>
       </c>
       <c r="Y380" t="n">
@@ -34773,7 +34773,7 @@
       </c>
       <c r="X382" t="inlineStr">
         <is>
-          <t>Despite of that, during the rest of the year the production value remained quite stable with few and not significant fluctuations.</t>
+          <t>Despite of that, during the rest TKN_About value remained quite stable with few and not significant fluctuations.</t>
         </is>
       </c>
       <c r="Y382" t="n">
@@ -34863,7 +34863,7 @@
       </c>
       <c r="X383" t="inlineStr">
         <is>
-          <t>The following line chart shows the farm product price index (FPPI) about the total TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The following line chart shows the TKN_UOM about the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y383" t="n">
@@ -35313,7 +35313,7 @@
       </c>
       <c r="X388" t="inlineStr">
         <is>
-          <t>The values are described using the farm product price index (FPPI).</t>
+          <t>The values are described using TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y388" t="n">
@@ -35853,7 +35853,7 @@
       </c>
       <c r="X394" t="inlineStr">
         <is>
-          <t>The unit given is the farm product price index (FPPI).</t>
+          <t>The unit given is TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y394" t="n">
@@ -36573,7 +36573,7 @@
       </c>
       <c r="X402" t="inlineStr">
         <is>
-          <t>The graph describes the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The graph describes the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y402" t="n">
@@ -36663,7 +36663,7 @@
       </c>
       <c r="X403" t="inlineStr">
         <is>
-          <t>The production value is described using the farm product price index (FPPI).</t>
+          <t>The production value is described using TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y403" t="n">
@@ -36753,7 +36753,7 @@
       </c>
       <c r="X404" t="inlineStr">
         <is>
-          <t>As it can be seen from the graph, the production rapidly increased from January until August.</t>
+          <t>As it can be seen TKN_About rapidly increased from January until August.</t>
         </is>
       </c>
       <c r="Y404" t="n">
@@ -36843,7 +36843,7 @@
       </c>
       <c r="X405" t="inlineStr">
         <is>
-          <t>After that, from August to December the production slightly decreased.</t>
+          <t>After that, from TKN_About slightly decreased.</t>
         </is>
       </c>
       <c r="Y405" t="n">
@@ -37023,7 +37023,7 @@
       </c>
       <c r="X407" t="inlineStr">
         <is>
-          <t>A graph showing the FPPPI for the production of poultry in TKN_Geo TKN_About year TKN_Year.</t>
+          <t>A graph showing the TKN_About poultry in TKN_Geo over the course of the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y407" t="n">
@@ -37203,7 +37203,7 @@
       </c>
       <c r="X409" t="inlineStr">
         <is>
-          <t>This line chart reflects the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>This line chart reflects the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y409" t="n">
@@ -37293,7 +37293,7 @@
       </c>
       <c r="X410" t="inlineStr">
         <is>
-          <t>From January until March the production remains unaltered at approximately 4.</t>
+          <t>From January TKN_About remains unaltered at approximately 4.</t>
         </is>
       </c>
       <c r="Y410" t="n">
@@ -37473,7 +37473,7 @@
       </c>
       <c r="X412" t="inlineStr">
         <is>
-          <t>There is TKN_About production between July and August, reaching its highest production which will last until December.</t>
+          <t>There is a TKN_About between July and August, reaching its highest production which will last until December.</t>
         </is>
       </c>
       <c r="Y412" t="n">
@@ -37563,7 +37563,7 @@
       </c>
       <c r="X413" t="inlineStr">
         <is>
-          <t>As it's possible to see, the following graph is about the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>As it's possible to see, the following graph is about the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y413" t="n">
@@ -37653,7 +37653,7 @@
       </c>
       <c r="X414" t="inlineStr">
         <is>
-          <t>The values are reported using the farm product price index (FPPI).</t>
+          <t>The values are reported using TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y414" t="n">
@@ -37743,7 +37743,7 @@
       </c>
       <c r="X415" t="inlineStr">
         <is>
-          <t>The production slightly increase over TKN_About the year, so from January until July.</t>
+          <t>The TKN_About the year, so from January until July.</t>
         </is>
       </c>
       <c r="Y415" t="n">
@@ -38013,7 +38013,7 @@
       </c>
       <c r="X418" t="inlineStr">
         <is>
-          <t>As can be seen from the graph the production TKN_About in TKN_Geo during TKN_Year had a significant growth during the second half of the year.</t>
+          <t>As can be seen from the graph the TKN_About in TKN_Geo during TKN_Year had a significant growth during the second half of the year.</t>
         </is>
       </c>
       <c r="Y418" t="n">
@@ -38283,7 +38283,7 @@
       </c>
       <c r="X421" t="inlineStr">
         <is>
-          <t>As is shown form the graph, the production TKN_About steadily increases in winter time, and steadily decreases in summer.</t>
+          <t>As is shown form the graph, the TKN_About steadily increases in winter time, and steadily decreases in summer.</t>
         </is>
       </c>
       <c r="Y421" t="n">
@@ -38373,7 +38373,7 @@
       </c>
       <c r="X422" t="inlineStr">
         <is>
-          <t>The graph shows that production is highest in November and lowest in June.</t>
+          <t>The graph TKN_About is highest in November and lowest in June.</t>
         </is>
       </c>
       <c r="Y422" t="n">
@@ -38463,7 +38463,7 @@
       </c>
       <c r="X423" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo has been substantially growing over TKN_Year.</t>
+          <t>The TKN_About in TKN_Geo has been substantially growing over TKN_Year.</t>
         </is>
       </c>
       <c r="Y423" t="n">
@@ -38823,7 +38823,7 @@
       </c>
       <c r="X427" t="inlineStr">
         <is>
-          <t>This graph depicts the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>This graph depicts the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y427" t="n">
@@ -38913,7 +38913,7 @@
       </c>
       <c r="X428" t="inlineStr">
         <is>
-          <t>The given unit is the farm product price index (FPPI).</t>
+          <t>The given unit is TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y428" t="n">
@@ -39093,7 +39093,7 @@
       </c>
       <c r="X430" t="inlineStr">
         <is>
-          <t>It starts at 34 during January, after which a steady decline can be observed, reaching the lowest production value in June at 0.</t>
+          <t>It starts at 34 during January, after which a steady decline can be observed, reaching TKN_About value in June at 0.</t>
         </is>
       </c>
       <c r="Y430" t="n">
@@ -39183,7 +39183,7 @@
       </c>
       <c r="X431" t="inlineStr">
         <is>
-          <t>During the following months production rapidly increases until the maximum is reached in November at approximately 100.</t>
+          <t>During the TKN_About rapidly increases until the maximum is reached in November at approximately 100.</t>
         </is>
       </c>
       <c r="Y431" t="n">
@@ -39363,7 +39363,7 @@
       </c>
       <c r="X433" t="inlineStr">
         <is>
-          <t>The line chart reports the values about the total TKN_About (FPPI) in TKN_Geo during TKN_Year.</t>
+          <t>The line chart reports the values TKN_About TKN_UOM in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y433" t="n">
@@ -39633,7 +39633,7 @@
       </c>
       <c r="X436" t="inlineStr">
         <is>
-          <t>The diagramm showes the toatal TKN_About of TKN_Geo over the year TKN_Year.</t>
+          <t>The diagramm showes TKN_UOM of TKN_Geo over the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y436" t="n">
@@ -40173,7 +40173,7 @@
       </c>
       <c r="X442" t="inlineStr">
         <is>
-          <t>The following graph shows the total TKN_About value in TKN_Geo during TKN_Year, and the values are described using the farm product price index (FPPI) as UOM.</t>
+          <t>The following graph shows the TKN_About value in TKN_Geo during TKN_Year, and the values are described using the TKN_UOM as UOM.</t>
         </is>
       </c>
       <c r="Y442" t="n">
@@ -40443,7 +40443,7 @@
       </c>
       <c r="X445" t="inlineStr">
         <is>
-          <t>The following line chart is about the TKN_About grains in TKN_Geo during TKN_Year.</t>
+          <t>The following line chart is about the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y445" t="n">
@@ -40623,7 +40623,7 @@
       </c>
       <c r="X447" t="inlineStr">
         <is>
-          <t>It's clearly possible to see how the TKN_About grains is quite low from January to May, but then it rapidly increase from June to December, reaching its maximum value during September TKN_Year.</t>
+          <t>It's clearly possible to see how the TKN_About is quite low from January to May, but then it rapidly increase from June to December, reaching its maximum value during September TKN_Year.</t>
         </is>
       </c>
       <c r="Y447" t="n">
@@ -40713,7 +40713,7 @@
       </c>
       <c r="X448" t="inlineStr">
         <is>
-          <t>The graph shows the production TKN_About in TKN_Geo in TKN_Year.</t>
+          <t>The graph shows the TKN_About in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y448" t="n">
@@ -40893,7 +40893,7 @@
       </c>
       <c r="X450" t="inlineStr">
         <is>
-          <t>the next two months the production increase.</t>
+          <t>the next two months TKN_About increase.</t>
         </is>
       </c>
       <c r="Y450" t="n">
@@ -41163,7 +41163,7 @@
       </c>
       <c r="X453" t="inlineStr">
         <is>
-          <t>The grain production TKN_About the year TKN_Year saw a zig-zag pattern from January to May before increasing in July and remained relatively stable for the rest of the year at the increased price.</t>
+          <t>The grain TKN_About the year TKN_Year saw a zig-zag pattern from January to May before increasing in July and remained relatively stable for the rest of the year at the increased price.</t>
         </is>
       </c>
       <c r="Y453" t="n">
@@ -41253,7 +41253,7 @@
       </c>
       <c r="X454" t="inlineStr">
         <is>
-          <t>This chart shows TKN_About fresh fruit, by the farm product price index, in TKN_Geo in TKN_Year.</t>
+          <t>This chart shows the TKN_About fruit, TKN_UOM index, in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y454" t="n">
@@ -41433,7 +41433,7 @@
       </c>
       <c r="X456" t="inlineStr">
         <is>
-          <t>We start at a markedly TKN_About production from January until May, at which point production starts to increase until July.</t>
+          <t>We start at a markedly low TKN_About from January until May, at which point production starts to increase until July.</t>
         </is>
       </c>
       <c r="Y456" t="n">
@@ -41523,7 +41523,7 @@
       </c>
       <c r="X457" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo during TKN_Year has been increasing over the year.</t>
+          <t>The TKN_About in TKN_Geo during TKN_Year has been increasing over the year.</t>
         </is>
       </c>
       <c r="Y457" t="n">
@@ -41883,7 +41883,7 @@
       </c>
       <c r="X461" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo clearly showed an ascendant trend during TKN_Year.</t>
+          <t>The TKN_About in TKN_Geo clearly showed an ascendant trend during TKN_Year.</t>
         </is>
       </c>
       <c r="Y461" t="n">
@@ -42063,7 +42063,7 @@
       </c>
       <c r="X463" t="inlineStr">
         <is>
-          <t>The production reached its maximum value during TKN_About December, and its minimum values during the first months of the year.</t>
+          <t>The production reached its maximum value during the month of December, and its minimum values during the first months of the year.</t>
         </is>
       </c>
       <c r="Y463" t="n">
@@ -42153,7 +42153,7 @@
       </c>
       <c r="X464" t="inlineStr">
         <is>
-          <t>This line chart describes the production TKN_About of TKN_Geo in TKN_Year.</t>
+          <t>This line chart describes the TKN_About of TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y464" t="n">
@@ -42423,7 +42423,7 @@
       </c>
       <c r="X467" t="inlineStr">
         <is>
-          <t>After September production TKN_About steadily decreases again, with a small increase in November.</t>
+          <t>After September TKN_About steadily decreases again, with a small increase in November.</t>
         </is>
       </c>
       <c r="Y467" t="n">
@@ -42603,7 +42603,7 @@
       </c>
       <c r="X469" t="inlineStr">
         <is>
-          <t>A line chart about the production TKN_About in TKN_Geo in the year TKN_Year.</t>
+          <t>A line chart about the TKN_About in TKN_Geo in the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y469" t="n">
@@ -42783,7 +42783,7 @@
       </c>
       <c r="X471" t="inlineStr">
         <is>
-          <t>The graph illustrated the production TKN_About in TKN_Geo in TKN_Year.</t>
+          <t>The graph illustrated the TKN_About in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y471" t="n">
@@ -42873,7 +42873,7 @@
       </c>
       <c r="X472" t="inlineStr">
         <is>
-          <t>The measurement used is the farm product price index (FPPI): There is a clear peak in August, reaching TKN_About more than 96.</t>
+          <t>The measurement used is TKN_UOM (FPPI): There is a clear peak in August, reaching TKN_About more than 96.</t>
         </is>
       </c>
       <c r="Y472" t="n">
@@ -42963,7 +42963,7 @@
       </c>
       <c r="X473" t="inlineStr">
         <is>
-          <t>It's clearly possible to see how the production TKN_About in TKN_Geo during TKN_Year maintained the same level for almost the whole year, but the summer months.</t>
+          <t>It's clearly possible to see how the TKN_About in TKN_Geo during TKN_Year maintained the same level for almost the whole year, but the summer months.</t>
         </is>
       </c>
       <c r="Y473" t="n">
@@ -43233,7 +43233,7 @@
       </c>
       <c r="X476" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo TKN_Year shows the highest values during the summer months.</t>
+          <t>The TKN_About in TKN_Geo TKN_Year shows the highest values during the summer months.</t>
         </is>
       </c>
       <c r="Y476" t="n">
@@ -43323,7 +43323,7 @@
       </c>
       <c r="X477" t="inlineStr">
         <is>
-          <t>In particular, the production reports its maximum value during TKN_About August.</t>
+          <t>In TKN_About reports its maximum value during the month of August.</t>
         </is>
       </c>
       <c r="Y477" t="n">
@@ -43593,7 +43593,7 @@
       </c>
       <c r="X480" t="inlineStr">
         <is>
-          <t>This graph represents the total TKN_About of TKN_Geo in TKN_Year.</t>
+          <t>This graph represents the TKN_About of TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y480" t="n">
@@ -43773,7 +43773,7 @@
       </c>
       <c r="X482" t="inlineStr">
         <is>
-          <t>From June until September the total TKN_About rapidly decline and reach a minimum of under 2 in September.</t>
+          <t>From June until September the TKN_About rapidly decline and reach a minimum of under 2 in September.</t>
         </is>
       </c>
       <c r="Y482" t="n">
@@ -43863,7 +43863,7 @@
       </c>
       <c r="X483" t="inlineStr">
         <is>
-          <t>As it's possible to see in the shown graph, the total TKN_About reported the highest values during the first half of the year.</t>
+          <t>As it's possible to see in the shown graph, the TKN_About reported the highest values during the first half of the year.</t>
         </is>
       </c>
       <c r="Y483" t="n">
@@ -44403,7 +44403,7 @@
       </c>
       <c r="X489" t="inlineStr">
         <is>
-          <t>From August until November the production remains quite stable at approximately 62 and starts decreasing until it reaches its minimum in February below 4.</t>
+          <t>From TKN_About remains quite stable at approximately 62 and starts decreasing until it reaches its minimum in February below 4.</t>
         </is>
       </c>
       <c r="Y489" t="n">
@@ -44493,7 +44493,7 @@
       </c>
       <c r="X490" t="inlineStr">
         <is>
-          <t>The graph shows the production TKN_About in TKN_Geo in the year of TKN_Year.</t>
+          <t>The graph shows the TKN_About in TKN_Geo in the year of TKN_Year.</t>
         </is>
       </c>
       <c r="Y490" t="n">
@@ -44673,7 +44673,7 @@
       </c>
       <c r="X492" t="inlineStr">
         <is>
-          <t>Production is measured by the farm product price index.</t>
+          <t>Production is measured TKN_UOM index.</t>
         </is>
       </c>
       <c r="Y492" t="n">
@@ -44943,7 +44943,7 @@
       </c>
       <c r="X495" t="inlineStr">
         <is>
-          <t>The following graph describes how the FPPI (farm product price index) about production TKN_About in TKN_Geo has been slowly increasing during TKN_Year.</t>
+          <t>The following graph describes how TKN_UOM index) about TKN_About in TKN_Geo has been slowly increasing during TKN_Year.</t>
         </is>
       </c>
       <c r="Y495" t="n">
@@ -45033,7 +45033,7 @@
       </c>
       <c r="X496" t="inlineStr">
         <is>
-          <t>In particular, it TKN_About February to 100 in December.</t>
+          <t>In particular, it increased from 0 in February to 100 in December.</t>
         </is>
       </c>
       <c r="Y496" t="n">
@@ -45213,7 +45213,7 @@
       </c>
       <c r="X498" t="inlineStr">
         <is>
-          <t>This graph depicts the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>This graph depicts the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y498" t="n">
@@ -45303,7 +45303,7 @@
       </c>
       <c r="X499" t="inlineStr">
         <is>
-          <t>The unit is farm product price index (FPPI).</t>
+          <t>The unit TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y499" t="n">
@@ -45483,7 +45483,7 @@
       </c>
       <c r="X501" t="inlineStr">
         <is>
-          <t>During the months of March and May the production remains unchanged at 33.</t>
+          <t>During the months TKN_About remains unchanged at 33.</t>
         </is>
       </c>
       <c r="Y501" t="n">
@@ -45573,7 +45573,7 @@
       </c>
       <c r="X502" t="inlineStr">
         <is>
-          <t>There is TKN_About production during June, until it remain stable throughout July until September at 56.</t>
+          <t>There is a TKN_About during June, until it remain stable throughout July until September at 56.</t>
         </is>
       </c>
       <c r="Y502" t="n">
@@ -45753,7 +45753,7 @@
       </c>
       <c r="X504" t="inlineStr">
         <is>
-          <t>The line chart illustrates the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The line chart illustrates the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y504" t="n">
@@ -45843,7 +45843,7 @@
       </c>
       <c r="X505" t="inlineStr">
         <is>
-          <t>The values are described using the farm product price index (FPPI).</t>
+          <t>The values are described using TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y505" t="n">
@@ -46023,7 +46023,7 @@
       </c>
       <c r="X507" t="inlineStr">
         <is>
-          <t>At the same time, during the summer the production significantly decreased, reaching its minimum value during TKN_About July.</t>
+          <t>At the same time, during the TKN_About significantly decreased, reaching its minimum value during the month of July.</t>
         </is>
       </c>
       <c r="Y507" t="n">
@@ -46113,7 +46113,7 @@
       </c>
       <c r="X508" t="inlineStr">
         <is>
-          <t>Graph that describes the production TKN_About in TKN_Geo in TKN_Year.</t>
+          <t>Graph that describes the TKN_About in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y508" t="n">
@@ -46203,7 +46203,7 @@
       </c>
       <c r="X509" t="inlineStr">
         <is>
-          <t>The production in October and February is the highest, while there is a significant drop the following TKN_About each.</t>
+          <t>The production in October and February is the highest, while there is a significant drop the following two months of each.</t>
         </is>
       </c>
       <c r="Y509" t="n">
@@ -46473,7 +46473,7 @@
       </c>
       <c r="X512" t="inlineStr">
         <is>
-          <t>As it's possible to see from the graph, the production TKN_About in TKN_Geo reported two significant peaks during TKN_Year, one in February and one in October.</t>
+          <t>As it's possible to see from the graph, the TKN_About in TKN_Geo reported two significant peaks during TKN_Year, one in February and one in October.</t>
         </is>
       </c>
       <c r="Y512" t="n">
@@ -46563,7 +46563,7 @@
       </c>
       <c r="X513" t="inlineStr">
         <is>
-          <t>Futhermore, from February to July the production value strongly decrease, reaching the yearly minimum value during July.</t>
+          <t>Futhermore, from February to TKN_About value strongly decrease, reaching the yearly minimum value during July.</t>
         </is>
       </c>
       <c r="Y513" t="n">
@@ -46653,7 +46653,7 @@
       </c>
       <c r="X514" t="inlineStr">
         <is>
-          <t>The line chart shows the farm product price index (FPPI) about TKN_About grain in TKN_Geo during TKN_Year.</t>
+          <t>The line chart shows the TKN_UOM about TKN_About grain in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y514" t="n">
@@ -46923,7 +46923,7 @@
       </c>
       <c r="X517" t="inlineStr">
         <is>
-          <t>The aforementioned graph shows the TKN_About grains in FPPI units divided by months of the year TKN_Year.</t>
+          <t>The aforementioned graph shows the TKN_About in FPPI units divided by months of the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y517" t="n">
@@ -47103,7 +47103,7 @@
       </c>
       <c r="X519" t="inlineStr">
         <is>
-          <t>The graph illustrates the production TKN_About in TKN_Geo in in TKN_Year.</t>
+          <t>The graph illustrates the TKN_About in TKN_Geo in in TKN_Year.</t>
         </is>
       </c>
       <c r="Y519" t="n">
@@ -47193,7 +47193,7 @@
       </c>
       <c r="X520" t="inlineStr">
         <is>
-          <t>The first few monthes till May the production fluctuate at around 93.</t>
+          <t>The first few monthes till May TKN_About fluctuate at around 93.</t>
         </is>
       </c>
       <c r="Y520" t="n">
@@ -47553,7 +47553,7 @@
       </c>
       <c r="X524" t="inlineStr">
         <is>
-          <t>It's clearly possible to see from this graph how the TKN_About grains in TKN_Geo had a big drop from June to August TKN_Year.</t>
+          <t>It's clearly possible to see from this graph how the TKN_About in TKN_Geo had a big drop from June to August TKN_Year.</t>
         </is>
       </c>
       <c r="Y524" t="n">
@@ -47823,7 +47823,7 @@
       </c>
       <c r="X527" t="inlineStr">
         <is>
-          <t>Even that, during the last few TKN_About the year the production of value slightly started to grow up again.</t>
+          <t>Even that, during the last few months of the year the TKN_About value slightly started to grow up again.</t>
         </is>
       </c>
       <c r="Y527" t="n">
@@ -47913,7 +47913,7 @@
       </c>
       <c r="X528" t="inlineStr">
         <is>
-          <t>The chart is showing the values about the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The chart is showing the values about the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y528" t="n">
@@ -48003,7 +48003,7 @@
       </c>
       <c r="X529" t="inlineStr">
         <is>
-          <t>The values are illustrated using the farm product price index (FPPI).</t>
+          <t>The values are illustrated using TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y529" t="n">
@@ -48273,7 +48273,7 @@
       </c>
       <c r="X532" t="inlineStr">
         <is>
-          <t>During the last TKN_About the year the production significantly jumped up, reaching the maximum value of the year during the month of December.</t>
+          <t>During the last two months TKN_About significantly jumped up, reaching the maximum value of the year during the month of December.</t>
         </is>
       </c>
       <c r="Y532" t="n">
@@ -48363,7 +48363,7 @@
       </c>
       <c r="X533" t="inlineStr">
         <is>
-          <t>The given graph shows the monthly development of the production TKN_About in Farm product price index in TKN_Year in TKN_Geo.</t>
+          <t>The given graph shows the monthly development of the TKN_About TKN_UOM in TKN_Year in TKN_Geo.</t>
         </is>
       </c>
       <c r="Y533" t="n">
@@ -48633,7 +48633,7 @@
       </c>
       <c r="X536" t="inlineStr">
         <is>
-          <t>The graph highlights the production TKN_About over the course of a year.</t>
+          <t>The graph highlights the TKN_About over the course of a year.</t>
         </is>
       </c>
       <c r="Y536" t="n">
@@ -48813,7 +48813,7 @@
       </c>
       <c r="X538" t="inlineStr">
         <is>
-          <t>This graph illustrates the production TKN_About in TKN_Geo in TKN_Year.</t>
+          <t>This graph illustrates the TKN_About in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y538" t="n">
@@ -49173,7 +49173,7 @@
       </c>
       <c r="X542" t="inlineStr">
         <is>
-          <t>The graph depicts a short increase in production from October until December and comes back to nearly minimum during January and February.</t>
+          <t>The graph depicts a short TKN_About from October until December and comes back to nearly minimum during January and February.</t>
         </is>
       </c>
       <c r="Y542" t="n">
@@ -49263,7 +49263,7 @@
       </c>
       <c r="X543" t="inlineStr">
         <is>
-          <t>The following graph is showing the recorded values about production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The following graph is showing the recorded values about TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y543" t="n">
@@ -49353,7 +49353,7 @@
       </c>
       <c r="X544" t="inlineStr">
         <is>
-          <t>The values have been reported using the farm product price index (FPPI).</t>
+          <t>The values have been reported using TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y544" t="n">
@@ -49443,7 +49443,7 @@
       </c>
       <c r="X545" t="inlineStr">
         <is>
-          <t>As it is shown, the production slightly increase during the TKN_About the year, but then it rapidly grow during the summer months, reaching its maximum value during the month of August.</t>
+          <t>As it is TKN_About slightly increase during the first half of the year, but then it rapidly grow during the summer months, reaching its maximum value during the month of August.</t>
         </is>
       </c>
       <c r="Y545" t="n">
@@ -49533,7 +49533,7 @@
       </c>
       <c r="X546" t="inlineStr">
         <is>
-          <t>After the summer, the production value drop, reaching its minimum value in October.</t>
+          <t>After the TKN_About value drop, reaching its minimum value in October.</t>
         </is>
       </c>
       <c r="Y546" t="n">
@@ -49623,7 +49623,7 @@
       </c>
       <c r="X547" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo during TKN_Year reached its maximum values during the months of July, August and September.</t>
+          <t>The TKN_About in TKN_Geo during TKN_Year reached its maximum values during the months of July, August and September.</t>
         </is>
       </c>
       <c r="Y547" t="n">
@@ -49803,7 +49803,7 @@
       </c>
       <c r="X549" t="inlineStr">
         <is>
-          <t>It's clearly possible to see how the production TKN_About is way higher during the summer months than during the winter one.</t>
+          <t>It's clearly possible to see how the TKN_About is way higher during the summer months than during the winter one.</t>
         </is>
       </c>
       <c r="Y549" t="n">
@@ -49893,7 +49893,7 @@
       </c>
       <c r="X550" t="inlineStr">
         <is>
-          <t>The chart shows the farm product price index (FPPI) about total TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The chart shows the TKN_UOM about TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y550" t="n">
@@ -50163,7 +50163,7 @@
       </c>
       <c r="X553" t="inlineStr">
         <is>
-          <t>The accompanying shows the monthly development of total TKN_About production in the year TKN_Year in TKN_Geo, measured in FPPI.</t>
+          <t>The accompanying shows the monthly development of TKN_About production in the year TKN_Year in TKN_Geo, measured in FPPI.</t>
         </is>
       </c>
       <c r="Y553" t="n">
@@ -50523,7 +50523,7 @@
       </c>
       <c r="X557" t="inlineStr">
         <is>
-          <t>The total TKN_About in TKN_Geo has been quite steady during the first few months of the TKN_Year.</t>
+          <t>The TKN_About in TKN_Geo has been quite steady during the first few months of the TKN_Year.</t>
         </is>
       </c>
       <c r="Y557" t="n">
@@ -50883,7 +50883,7 @@
       </c>
       <c r="X561" t="inlineStr">
         <is>
-          <t>This graph shows the TKN_About and poults, measured by the farm product price index.</t>
+          <t>This graph shows the TKN_About and poults, measured TKN_UOM index.</t>
         </is>
       </c>
       <c r="Y561" t="n">
@@ -51243,7 +51243,7 @@
       </c>
       <c r="X565" t="inlineStr">
         <is>
-          <t>The production TKN_About fluctuates in TKN_Geo during the year TKN_Year.</t>
+          <t>The TKN_About fluctuates in TKN_Geo during the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y565" t="n">
@@ -51603,7 +51603,7 @@
       </c>
       <c r="X569" t="inlineStr">
         <is>
-          <t>The graph is showing the trend about production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The graph is showing the trend about TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y569" t="n">
@@ -51693,7 +51693,7 @@
       </c>
       <c r="X570" t="inlineStr">
         <is>
-          <t>The values are illustrated using the farm product price index (FPPI).</t>
+          <t>The values are illustrated using TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y570" t="n">
@@ -52053,7 +52053,7 @@
       </c>
       <c r="X574" t="inlineStr">
         <is>
-          <t>This charts shows the TKN_About shell, as measured by the farm product price index, in TKN_Geo in TKN_Year.</t>
+          <t>This charts shows the TKN_About shell, as measured TKN_UOM index, in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y574" t="n">
@@ -52323,7 +52323,7 @@
       </c>
       <c r="X577" t="inlineStr">
         <is>
-          <t>After this, production recovers over TKN_About year, reaching near the maximum by Oct before reaching the maximum by November and December.</t>
+          <t>After this, TKN_About the year, reaching near the maximum by Oct before reaching the maximum by November and December.</t>
         </is>
       </c>
       <c r="Y577" t="n">
@@ -52413,7 +52413,7 @@
       </c>
       <c r="X578" t="inlineStr">
         <is>
-          <t>The graph indicates the production TKN_About in canada in the year of TKN_Year.</t>
+          <t>The graph indicates the TKN_About in canada in the year of TKN_Year.</t>
         </is>
       </c>
       <c r="Y578" t="n">
@@ -52683,7 +52683,7 @@
       </c>
       <c r="X581" t="inlineStr">
         <is>
-          <t>The shown data values are about the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>The shown data values are about the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y581" t="n">
@@ -52773,7 +52773,7 @@
       </c>
       <c r="X582" t="inlineStr">
         <is>
-          <t>They are described using the farm product price index (FPPI).</t>
+          <t>They are described using TKN_UOM (FPPI).</t>
         </is>
       </c>
       <c r="Y582" t="n">
@@ -53223,7 +53223,7 @@
       </c>
       <c r="X587" t="inlineStr">
         <is>
-          <t>This chart represents the production TKN_About of TKN_Geo in TKN_Year.</t>
+          <t>This chart represents the TKN_About of TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y587" t="n">
@@ -53313,7 +53313,7 @@
       </c>
       <c r="X588" t="inlineStr">
         <is>
-          <t>Whereas the production oscillates from January until June ranging from 34 until 53 a TKN_About below 9 is observed during July.</t>
+          <t>Whereas the production oscillates from January until June ranging from 34 until 53 a minimum value of below 9 is observed during July.</t>
         </is>
       </c>
       <c r="Y588" t="n">
@@ -53583,7 +53583,7 @@
       </c>
       <c r="X591" t="inlineStr">
         <is>
-          <t>The provided graph depicts the changes in the production TKN_About in TKN_Geo in TKN_Year.</t>
+          <t>The provided graph depicts the changes in the TKN_About in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y591" t="n">
@@ -53943,7 +53943,7 @@
       </c>
       <c r="X595" t="inlineStr">
         <is>
-          <t>A graph showing the farm product price index over TKN_About the year TKN_Year in TKN_Geo.</t>
+          <t>A graph showing TKN_UOM over TKN_About the year TKN_Year in TKN_Geo.</t>
         </is>
       </c>
       <c r="Y595" t="n">
@@ -54573,7 +54573,7 @@
       </c>
       <c r="X602" t="inlineStr">
         <is>
-          <t>The commercial TKN_About in TKN_Geo decreased over TKN_Year.</t>
+          <t>The TKN_About in TKN_Geo decreased over TKN_Year.</t>
         </is>
       </c>
       <c r="Y602" t="n">
@@ -54843,7 +54843,7 @@
       </c>
       <c r="X605" t="inlineStr">
         <is>
-          <t>The commercial TKN_About was slightly increasing during the three first months of the year TKN_Year, then slightly decline for a month.</t>
+          <t>The TKN_About was slightly increasing during the three first months of the year TKN_Year, then slightly decline for a month.</t>
         </is>
       </c>
       <c r="Y605" t="n">
@@ -55113,7 +55113,7 @@
       </c>
       <c r="X608" t="inlineStr">
         <is>
-          <t>The Diagramm showes the commercial TKN_About of TKN_Geo over the year TKN_Year.</t>
+          <t>The Diagramm showes the TKN_About of TKN_Geo over the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y608" t="n">
@@ -55563,7 +55563,7 @@
       </c>
       <c r="X613" t="inlineStr">
         <is>
-          <t>The commercial TKN_About in TKN_Geo slipped down during the TKN_Year.</t>
+          <t>The TKN_About in TKN_Geo slipped down during the TKN_Year.</t>
         </is>
       </c>
       <c r="Y613" t="n">
@@ -56193,7 +56193,7 @@
       </c>
       <c r="X620" t="inlineStr">
         <is>
-          <t>Graphic of the market prices trend of Computers in TKN_Geo TKN_Year.</t>
+          <t>Graphic of the TKN_About in TKN_Geo TKN_Year.</t>
         </is>
       </c>
       <c r="Y620" t="n">
@@ -56463,7 +56463,7 @@
       </c>
       <c r="X623" t="inlineStr">
         <is>
-          <t>The graph shows the TKN_About computer price index in TKN_Geo over TKN_Year.</t>
+          <t>The graph shows the trend about TKN_About index in TKN_Geo over TKN_Year.</t>
         </is>
       </c>
       <c r="Y623" t="n">
@@ -56913,7 +56913,7 @@
       </c>
       <c r="X628" t="inlineStr">
         <is>
-          <t>During last few months of the year the price index started to slightly grow again.</t>
+          <t>During last few months TKN_About index started to slightly grow again.</t>
         </is>
       </c>
       <c r="Y628" t="n">
@@ -57003,7 +57003,7 @@
       </c>
       <c r="X629" t="inlineStr">
         <is>
-          <t>In this graph, the price index TKN_About can be seen.</t>
+          <t>In this graph, the TKN_About can be seen.</t>
         </is>
       </c>
       <c r="Y629" t="n">
@@ -57273,7 +57273,7 @@
       </c>
       <c r="X632" t="inlineStr">
         <is>
-          <t>It describes the price index of laptop computer in TKN_Geo during TKN_Year.</t>
+          <t>It describes the TKN_About computer in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y632" t="n">
@@ -57633,7 +57633,7 @@
       </c>
       <c r="X636" t="inlineStr">
         <is>
-          <t>The graph shows the price index of laptop computer in the year TKN_Year in TKN_Geo.</t>
+          <t>The graph shows the TKN_About computer in the year TKN_Year in TKN_Geo.</t>
         </is>
       </c>
       <c r="Y636" t="n">
@@ -58263,7 +58263,7 @@
       </c>
       <c r="X643" t="inlineStr">
         <is>
-          <t>The provided graph depicts the development of the price index TKN_About in TKN_Geo in TKN_Year, divided by month.</t>
+          <t>The provided graph depicts the development of the TKN_About in TKN_Geo in TKN_Year, divided by month.</t>
         </is>
       </c>
       <c r="Y643" t="n">
@@ -58533,7 +58533,7 @@
       </c>
       <c r="X646" t="inlineStr">
         <is>
-          <t>The graph shoes the overall decrease in tablet computer prices throughout the year.</t>
+          <t>The graph shoes the overall TKN_About computer prices throughout the year.</t>
         </is>
       </c>
       <c r="Y646" t="n">
@@ -58803,7 +58803,7 @@
       </c>
       <c r="X649" t="inlineStr">
         <is>
-          <t>The price index for servers in 2994 rapidly fell from a high in January, to its lowest point in March of TKN_Year.</t>
+          <t>The TKN_About in 2994 rapidly fell from a high in January, to its lowest point in March of TKN_Year.</t>
         </is>
       </c>
       <c r="Y649" t="n">
@@ -58893,7 +58893,7 @@
       </c>
       <c r="X650" t="inlineStr">
         <is>
-          <t>After that the price index saw some fluctuation in the coming months until November, where it dropped again and did not change in December.</t>
+          <t>After that TKN_About index saw some fluctuation in the coming months until November, where it dropped again and did not change in December.</t>
         </is>
       </c>
       <c r="Y650" t="n">
@@ -58983,7 +58983,7 @@
       </c>
       <c r="X651" t="inlineStr">
         <is>
-          <t>The graph showes the price index of servers in TKN_Year.</t>
+          <t>The graph showes the TKN_About in TKN_Year.</t>
         </is>
       </c>
       <c r="Y651" t="n">
@@ -59433,7 +59433,7 @@
       </c>
       <c r="X656" t="inlineStr">
         <is>
-          <t>The graph shows the price index of serves in TKN_Geo during TKN_Year.</t>
+          <t>The graph shows TKN_About index of serves in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y656" t="n">
@@ -59883,7 +59883,7 @@
       </c>
       <c r="X661" t="inlineStr">
         <is>
-          <t>The price index TKN_About in TKN_Geo in TKN_Year is illustrated by this graph.</t>
+          <t>The TKN_About in TKN_Geo in TKN_Year is illustrated by this graph.</t>
         </is>
       </c>
       <c r="Y661" t="n">
@@ -60153,7 +60153,7 @@
       </c>
       <c r="X664" t="inlineStr">
         <is>
-          <t>For the following months the price index graph starts oscillating until reaching its minimum value in December at 0.</t>
+          <t>For TKN_About index graph starts oscillating until reaching its minimum value in December at 0.</t>
         </is>
       </c>
       <c r="Y664" t="n">
@@ -60243,7 +60243,7 @@
       </c>
       <c r="X665" t="inlineStr">
         <is>
-          <t>This graph represents the price index TKN_About in TKN_Geo in TKN_Year.</t>
+          <t>This graph represents the TKN_About in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y665" t="n">
@@ -60603,7 +60603,7 @@
       </c>
       <c r="X669" t="inlineStr">
         <is>
-          <t>It's clearly possible to see how the price index TKN_About in TKN_Geo has been significantly decreasing over TKN_Year.</t>
+          <t>It's clearly possible to see how the TKN_About in TKN_Geo has been significantly decreasing over TKN_Year.</t>
         </is>
       </c>
       <c r="Y669" t="n">
@@ -60963,7 +60963,7 @@
       </c>
       <c r="X673" t="inlineStr">
         <is>
-          <t>The following graph shows information about the laptop computer price index in TKN_Geo during TKN_Year.</t>
+          <t>The following graph shows information about the TKN_About index in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y673" t="n">
@@ -61323,7 +61323,7 @@
       </c>
       <c r="X677" t="inlineStr">
         <is>
-          <t>The given graph shows the average retail price developement TKN_About in TKN_Geo in the year TKN_Year split into the different months.</t>
+          <t>The given graph shows the average retail TKN_About in TKN_Geo in the year TKN_Year split into the different months.</t>
         </is>
       </c>
       <c r="Y677" t="n">
@@ -61413,7 +61413,7 @@
       </c>
       <c r="X678" t="inlineStr">
         <is>
-          <t>In january the price started out at 92 dollars, increased slightly and then plummeted to 25 dollars average in June.</t>
+          <t>In TKN_About started out at 92 dollars, increased slightly and then plummeted to 25 dollars average in June.</t>
         </is>
       </c>
       <c r="Y678" t="n">
@@ -61503,7 +61503,7 @@
       </c>
       <c r="X679" t="inlineStr">
         <is>
-          <t>A short incline happend in July just for it falling back onto the June price in august.</t>
+          <t>A short incline happend in July just for it falling back onto TKN_About in august.</t>
         </is>
       </c>
       <c r="Y679" t="n">
@@ -61593,7 +61593,7 @@
       </c>
       <c r="X680" t="inlineStr">
         <is>
-          <t>After a slight incline, the price fell to its lowest in december.</t>
+          <t>After a slight TKN_About fell to its lowest in december.</t>
         </is>
       </c>
       <c r="Y680" t="n">
@@ -61683,7 +61683,7 @@
       </c>
       <c r="X681" t="inlineStr">
         <is>
-          <t>This is a line graph showing the TKN_Year price index of laptops in TKN_Geo.</t>
+          <t>This is a line graph showing TKN_About index of laptops in TKN_Geo.</t>
         </is>
       </c>
       <c r="Y681" t="n">
@@ -62043,7 +62043,7 @@
       </c>
       <c r="X685" t="inlineStr">
         <is>
-          <t>Except for some punctual oscillations, the overall trend is of price reduction throughout the period considered.</t>
+          <t>Except for some punctual oscillations, the overall trend TKN_About reduction throughout the period considered.</t>
         </is>
       </c>
       <c r="Y685" t="n">
@@ -62133,7 +62133,7 @@
       </c>
       <c r="X686" t="inlineStr">
         <is>
-          <t>As it's possible to see from the graph, TKN_About price index in TKN_Geo rapidly decreased over TKN_Year.</t>
+          <t>As it's possible to see from the graph, the TKN_About index in TKN_Geo rapidly decreased over TKN_Year.</t>
         </is>
       </c>
       <c r="Y686" t="n">
@@ -62403,7 +62403,7 @@
       </c>
       <c r="X689" t="inlineStr">
         <is>
-          <t>The graph shows a general downward trend of the price TKN_About over the year TKN_Year in TKN_Geo.</t>
+          <t>The graph shows a general downward trend of the TKN_About over the year TKN_Year in TKN_Geo.</t>
         </is>
       </c>
       <c r="Y689" t="n">
@@ -62493,7 +62493,7 @@
       </c>
       <c r="X690" t="inlineStr">
         <is>
-          <t>There was a slight price climb in the middle of the year.</t>
+          <t>There was TKN_About climb in the middle of the year.</t>
         </is>
       </c>
       <c r="Y690" t="n">
@@ -62583,7 +62583,7 @@
       </c>
       <c r="X691" t="inlineStr">
         <is>
-          <t>As this is a price index and the y-axis is missing, one can only assume a relative decrease in price.</t>
+          <t>As this TKN_About index and the y-axis is missing, one can only assume a relative decrease in price.</t>
         </is>
       </c>
       <c r="Y691" t="n">
@@ -62673,7 +62673,7 @@
       </c>
       <c r="X692" t="inlineStr">
         <is>
-          <t>The graph showes the anual price index TKN_About in the year TKN_Year.</t>
+          <t>The graph showes the anual TKN_About in the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y692" t="n">
@@ -63123,7 +63123,7 @@
       </c>
       <c r="X697" t="inlineStr">
         <is>
-          <t>The price index of servers in TKN_Geo during TKN_Year is depicted in this line chart.</t>
+          <t>The TKN_About in TKN_Geo during TKN_Year is depicted in this line chart.</t>
         </is>
       </c>
       <c r="Y697" t="n">
@@ -63303,7 +63303,7 @@
       </c>
       <c r="X699" t="inlineStr">
         <is>
-          <t>Between aforementioned months the price varies and reaches a low point during April, from which there is a sharp increase until June.</t>
+          <t>Between aforementioned months TKN_About varies and reaches a low point during April, from which there is a sharp increase until June.</t>
         </is>
       </c>
       <c r="Y699" t="n">
@@ -63393,7 +63393,7 @@
       </c>
       <c r="X700" t="inlineStr">
         <is>
-          <t>From June onwards the price decreases in an oscillating manner until it reaches its minimum of approximately -3477 in November.</t>
+          <t>From June onwards TKN_About decreases in an oscillating manner until it reaches its minimum of approximately -3477 in November.</t>
         </is>
       </c>
       <c r="Y700" t="n">
@@ -63573,7 +63573,7 @@
       </c>
       <c r="X702" t="inlineStr">
         <is>
-          <t>This shows the price index of servers in TKN_Year.</t>
+          <t>This shows the TKN_About in TKN_Year.</t>
         </is>
       </c>
       <c r="Y702" t="n">
@@ -63933,7 +63933,7 @@
       </c>
       <c r="X706" t="inlineStr">
         <is>
-          <t>The line chart describes TKN_About price index trend in TKN_Geo during TKN_Year.</t>
+          <t>The line chart describes the TKN_About index trend in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y706" t="n">
@@ -64293,7 +64293,7 @@
       </c>
       <c r="X710" t="inlineStr">
         <is>
-          <t>As it can be seen from the graph, the price TKN_About computer in TKN_Geo during TKN_Year slowly decreased over the year with several fluctuations.</t>
+          <t>As it can be seen from the graph, the TKN_About computer in TKN_Geo during TKN_Year slowly decreased over the year with several fluctuations.</t>
         </is>
       </c>
       <c r="Y710" t="n">
@@ -64563,7 +64563,7 @@
       </c>
       <c r="X713" t="inlineStr">
         <is>
-          <t>A line chart about the price TKN_About computer in TKN_Geo in the year TKN_Year.</t>
+          <t>A line chart about the TKN_About computer in TKN_Geo in the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y713" t="n">
@@ -64833,7 +64833,7 @@
       </c>
       <c r="X716" t="inlineStr">
         <is>
-          <t>This figure represents the Canadian price index TKN_About during TKN_Year.</t>
+          <t>This figure represents the Canadian TKN_About during TKN_Year.</t>
         </is>
       </c>
       <c r="Y716" t="n">
@@ -65283,7 +65283,7 @@
       </c>
       <c r="X721" t="inlineStr">
         <is>
-          <t>This graph represents the price index TKN_About in TKN_Geo.</t>
+          <t>This graph represents the TKN_About in TKN_Geo.</t>
         </is>
       </c>
       <c r="Y721" t="n">
@@ -65463,7 +65463,7 @@
       </c>
       <c r="X723" t="inlineStr">
         <is>
-          <t>From February until May the price starts fluctuating between roughly 50 to 79.</t>
+          <t>From February until TKN_About starts fluctuating between roughly 50 to 79.</t>
         </is>
       </c>
       <c r="Y723" t="n">
@@ -65823,7 +65823,7 @@
       </c>
       <c r="X727" t="inlineStr">
         <is>
-          <t>This graph represents the price index TKN_About in TKN_Geo in TKN_Year.</t>
+          <t>This graph represents the TKN_About in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y727" t="n">
@@ -66003,7 +66003,7 @@
       </c>
       <c r="X729" t="inlineStr">
         <is>
-          <t>During the following months the price index fluctuates, until there is a sharp decline from May to June, reaching the lowest value of 0.</t>
+          <t>During the following TKN_About index fluctuates, until there is a sharp decline from May to June, reaching the lowest value of 0.</t>
         </is>
       </c>
       <c r="Y729" t="n">
@@ -66273,7 +66273,7 @@
       </c>
       <c r="X732" t="inlineStr">
         <is>
-          <t>The line graph depicts the price index TKN_About in TKN_Geo for every month of TKN_Year.</t>
+          <t>The line graph depicts the TKN_About in TKN_Geo for every month of TKN_Year.</t>
         </is>
       </c>
       <c r="Y732" t="n">
@@ -66543,7 +66543,7 @@
       </c>
       <c r="X735" t="inlineStr">
         <is>
-          <t>The grapg shows the price index TKN_About in TKN_Geo in the year TKN_Year.</t>
+          <t>The grapg shows the TKN_About in TKN_Geo in the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y735" t="n">
@@ -66633,7 +66633,7 @@
       </c>
       <c r="X736" t="inlineStr">
         <is>
-          <t>It is noticeable that the price decreases almost continuously during the first third of the year.</t>
+          <t>It is noticeable TKN_About decreases almost continuously during the first third of the year.</t>
         </is>
       </c>
       <c r="Y736" t="n">
@@ -66813,7 +66813,7 @@
       </c>
       <c r="X738" t="inlineStr">
         <is>
-          <t>It shows the price index trend TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>It shows the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y738" t="n">
@@ -67173,7 +67173,7 @@
       </c>
       <c r="X742" t="inlineStr">
         <is>
-          <t>The graph depicts a price index of servers in TKN_Geo.</t>
+          <t>The graph depicts a TKN_About in TKN_Geo.</t>
         </is>
       </c>
       <c r="Y742" t="n">
@@ -67353,7 +67353,7 @@
       </c>
       <c r="X744" t="inlineStr">
         <is>
-          <t>One can observe a decline in the price index within the first months of the year, reaching a low of 0 in April.</t>
+          <t>One can observe a decline in TKN_About index within the first months of the year, reaching a low of 0 in April.</t>
         </is>
       </c>
       <c r="Y744" t="n">
@@ -67623,7 +67623,7 @@
       </c>
       <c r="X747" t="inlineStr">
         <is>
-          <t>This figure represents the Canadian price index of servers in TKN_Year.</t>
+          <t>This figure represents the Canadian TKN_About in TKN_Year.</t>
         </is>
       </c>
       <c r="Y747" t="n">
@@ -68163,7 +68163,7 @@
       </c>
       <c r="X753" t="inlineStr">
         <is>
-          <t>A slow, but steady increase is taking place from March until it reaches its peak in August with a total number of 97.</t>
+          <t>A slow, but steady increase is taking place from March until it reaches its TKN_About TKN_UOM of 97.</t>
         </is>
       </c>
       <c r="Y753" t="n">
@@ -68613,7 +68613,7 @@
       </c>
       <c r="X758" t="inlineStr">
         <is>
-          <t>The following TKN_About its second lowest point of just under 160,000 in December.</t>
+          <t>The following month show a steady decrease to its second lowest point of just under 160,000 in December.</t>
         </is>
       </c>
       <c r="Y758" t="n">
@@ -68793,7 +68793,7 @@
       </c>
       <c r="X760" t="inlineStr">
         <is>
-          <t>The graph follows an uphill climb from January until TKN_About months of Feburary and June.</t>
+          <t>The graph follows an uphill climb from January until August, except for dips in the months of Feburary and June.</t>
         </is>
       </c>
       <c r="Y760" t="n">
@@ -68973,7 +68973,7 @@
       </c>
       <c r="X762" t="inlineStr">
         <is>
-          <t>This graph indicates the number of total TKN_About in TKN_Year.</t>
+          <t>This graph indicates the TKN_UOM of TKN_About in TKN_Year.</t>
         </is>
       </c>
       <c r="Y762" t="n">
@@ -69063,7 +69063,7 @@
       </c>
       <c r="X763" t="inlineStr">
         <is>
-          <t>The lowest number of approximately TKN_About month of February.</t>
+          <t>The lowest TKN_UOM of approximately 3 can be observed during the month of February.</t>
         </is>
       </c>
       <c r="Y763" t="n">
@@ -69333,7 +69333,7 @@
       </c>
       <c r="X766" t="inlineStr">
         <is>
-          <t>After August the number steadily decreases until reaching its minimum in February.</t>
+          <t>After August the TKN_UOM steadily decreases until reaching its minimum in February.</t>
         </is>
       </c>
       <c r="Y766" t="n">
@@ -69423,7 +69423,7 @@
       </c>
       <c r="X767" t="inlineStr">
         <is>
-          <t>The graph shows the trend of the total number of TKN_About year TKN_Year.</t>
+          <t>The graph shows the trend of TKN_About TKN_Geo during the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y767" t="n">
@@ -69513,7 +69513,7 @@
       </c>
       <c r="X768" t="inlineStr">
         <is>
-          <t>The number drops between TKN_About minimum value in february.</t>
+          <t>The TKN_UOM drops between TKN_About minimum value in february.</t>
         </is>
       </c>
       <c r="Y768" t="n">
@@ -69693,7 +69693,7 @@
       </c>
       <c r="X770" t="inlineStr">
         <is>
-          <t>Between august and december the number decreases continuously.</t>
+          <t>Between august and december the TKN_UOM decreases continuously.</t>
         </is>
       </c>
       <c r="Y770" t="n">
@@ -69783,7 +69783,7 @@
       </c>
       <c r="X771" t="inlineStr">
         <is>
-          <t>The number of TKN_About during TKN_Year registered the highest values during the summer months.</t>
+          <t>The TKN_UOM of TKN_About during TKN_Year registered the highest values during the summer months.</t>
         </is>
       </c>
       <c r="Y771" t="n">
@@ -69873,7 +69873,7 @@
       </c>
       <c r="X772" t="inlineStr">
         <is>
-          <t>In particular, the maximum number was recorded during August TKN_Year.</t>
+          <t>In particular, the maximum TKN_UOM was recorded during August TKN_Year.</t>
         </is>
       </c>
       <c r="Y772" t="n">
@@ -70053,7 +70053,7 @@
       </c>
       <c r="X774" t="inlineStr">
         <is>
-          <t>During the last few months of the year the number TKN_About slowly decreased.</t>
+          <t>During the last few months of the year the TKN_UOM TKN_About slowly decreased.</t>
         </is>
       </c>
       <c r="Y774" t="n">
@@ -70143,7 +70143,7 @@
       </c>
       <c r="X775" t="inlineStr">
         <is>
-          <t>This line graph illustrates the total number of TKN_About in TKN_Year.</t>
+          <t>This line graph illustrates the total TKN_UOM of TKN_About in TKN_Year.</t>
         </is>
       </c>
       <c r="Y775" t="n">
@@ -70233,7 +70233,7 @@
       </c>
       <c r="X776" t="inlineStr">
         <is>
-          <t>The x-axis TKN_About year, whereas the y-axis shows the number of vehicles.</t>
+          <t>The x-axis shows the different months of the year, whereas the y-axis shows the TKN_UOM of vehicles.</t>
         </is>
       </c>
       <c r="Y776" t="n">
@@ -70683,7 +70683,7 @@
       </c>
       <c r="X781" t="inlineStr">
         <is>
-          <t>The median number of returning vehicles is between 50 and 63.</t>
+          <t>The median TKN_UOM of returning vehicles is between 50 and 63.</t>
         </is>
       </c>
       <c r="Y781" t="n">
@@ -70773,7 +70773,7 @@
       </c>
       <c r="X782" t="inlineStr">
         <is>
-          <t>The maximum value of total TKN_About during TKN_Year has been reached during the month of August.</t>
+          <t>The maximum value of TKN_About during TKN_Year has been reached during the month of August.</t>
         </is>
       </c>
       <c r="Y782" t="n">
@@ -71133,7 +71133,7 @@
       </c>
       <c r="X786" t="inlineStr">
         <is>
-          <t>The graph illustrates the total number of TKN_About TKN_Geo.</t>
+          <t>The graph illustrates the total TKN_UOM of TKN_About TKN_Geo.</t>
         </is>
       </c>
       <c r="Y786" t="n">
@@ -71673,7 +71673,7 @@
       </c>
       <c r="X792" t="inlineStr">
         <is>
-          <t>This graph shows the number of TKN_About in TKN_Year.</t>
+          <t>This graph shows the TKN_UOM of TKN_About in TKN_Year.</t>
         </is>
       </c>
       <c r="Y792" t="n">
@@ -72033,7 +72033,7 @@
       </c>
       <c r="X796" t="inlineStr">
         <is>
-          <t>This graph depicts the total number of TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>This graph depicts the total TKN_UOM of TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y796" t="n">
@@ -72213,7 +72213,7 @@
       </c>
       <c r="X798" t="inlineStr">
         <is>
-          <t>During the following months TKN_About steadily increase until reaching the maximum number the year TKN_Year in July with approximately 101.</t>
+          <t>During the following months TKN_About steadily increase until reaching the maximum TKN_UOM the year TKN_Year in July with approximately 101.</t>
         </is>
       </c>
       <c r="Y798" t="n">
@@ -72393,7 +72393,7 @@
       </c>
       <c r="X800" t="inlineStr">
         <is>
-          <t>The number hardly changes in December.</t>
+          <t>The TKN_UOM hardly changes in December.</t>
         </is>
       </c>
       <c r="Y800" t="n">
@@ -72483,7 +72483,7 @@
       </c>
       <c r="X801" t="inlineStr">
         <is>
-          <t>As it can be seen from the graph, the total number of TKN_About in TKN_Geo during TKN_Year presented the highest values during the summer period.</t>
+          <t>As it can be seen from the graph, the total TKN_UOM of TKN_About in TKN_Geo during TKN_Year presented the highest values during the summer period.</t>
         </is>
       </c>
       <c r="Y801" t="n">
@@ -72753,7 +72753,7 @@
       </c>
       <c r="X804" t="inlineStr">
         <is>
-          <t>A chart showing the number of TKN_About TKN_Geo sorted by month and showing the significant peak in the summer months.</t>
+          <t>A chart showing the TKN_UOM of TKN_About TKN_Geo sorted by month and showing the significant peak in the summer months.</t>
         </is>
       </c>
       <c r="Y804" t="n">
@@ -72843,7 +72843,7 @@
       </c>
       <c r="X805" t="inlineStr">
         <is>
-          <t>The total number TKN_About returning presents a steep growth over the first half of the year.</t>
+          <t>The TKN_About returning presents a steep growth over the first half of the year.</t>
         </is>
       </c>
       <c r="Y805" t="n">
@@ -73203,7 +73203,7 @@
       </c>
       <c r="X809" t="inlineStr">
         <is>
-          <t>The graph shows the the number of TKN_About TKN_Geo in TKN_Year.</t>
+          <t>The graph shows the the TKN_UOM of TKN_About TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y809" t="n">
@@ -73473,7 +73473,7 @@
       </c>
       <c r="X812" t="inlineStr">
         <is>
-          <t>The displayed chart shows the total TKN_About TKN_Geo during TKN_Year.</t>
+          <t>The displayed chart shows the TKN_About TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y812" t="n">
@@ -73833,7 +73833,7 @@
       </c>
       <c r="X816" t="inlineStr">
         <is>
-          <t>The graph TKN_About from the united states in canada in the year of TKN_Year.</t>
+          <t>The graph indicates the TKN_About in canada in the year of TKN_Year.</t>
         </is>
       </c>
       <c r="Y816" t="n">
@@ -73923,7 +73923,7 @@
       </c>
       <c r="X817" t="inlineStr">
         <is>
-          <t>It is noticeable that the number is rising sharply by the middle of the year, reaching a maximum of 1,200,000 in August.</t>
+          <t>It is noticeable that the TKN_UOM is rising sharply by the middle of the year, reaching a maximum of 1,200,000 in August.</t>
         </is>
       </c>
       <c r="Y817" t="n">
@@ -74103,7 +74103,7 @@
       </c>
       <c r="X819" t="inlineStr">
         <is>
-          <t>The line chart shows the total number TKN_About TKN_Geo during TKN_Year.</t>
+          <t>The line chart shows the TKN_About TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y819" t="n">
@@ -74283,7 +74283,7 @@
       </c>
       <c r="X821" t="inlineStr">
         <is>
-          <t>As it's shown in the graph, the number TKN_About TKN_Geo during TKN_Year has been much higher during the summer compared with the other months of the year.</t>
+          <t>As it's shown in the graph, the TKN_UOM TKN_About TKN_Geo during TKN_Year has been much higher during the summer compared with the other months of the year.</t>
         </is>
       </c>
       <c r="Y821" t="n">
@@ -74373,7 +74373,7 @@
       </c>
       <c r="X822" t="inlineStr">
         <is>
-          <t>In particular, the maximum number TKN_About TKN_Geo in TKN_Year has been registered during August.</t>
+          <t>In particular, the maximum TKN_UOM TKN_About TKN_Geo in TKN_Year has been registered during August.</t>
         </is>
       </c>
       <c r="Y822" t="n">
@@ -74553,7 +74553,7 @@
       </c>
       <c r="X824" t="inlineStr">
         <is>
-          <t>The number of TKN_About TKN_Geo in TKN_Year is depicted in this graph.</t>
+          <t>The TKN_UOM of TKN_About TKN_Geo in TKN_Year is depicted in this graph.</t>
         </is>
       </c>
       <c r="Y824" t="n">
@@ -74913,7 +74913,7 @@
       </c>
       <c r="X828" t="inlineStr">
         <is>
-          <t>From August until December the number TKN_About TKN_Geo experience a steady decrease, reaching a number of 22 at the end of the year.</t>
+          <t>From August until December the TKN_UOM TKN_About TKN_Geo experience a steady decrease, reaching a TKN_UOM of 22 at the end of the year.</t>
         </is>
       </c>
       <c r="Y828" t="n">
@@ -75003,7 +75003,7 @@
       </c>
       <c r="X829" t="inlineStr">
         <is>
-          <t>The shown graph is about the TKN_About rye in TKN_Geo during TKN_Year.</t>
+          <t>The shown graph is about the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y829" t="n">
@@ -75093,7 +75093,7 @@
       </c>
       <c r="X830" t="inlineStr">
         <is>
-          <t>The production values are quantified using tonnes as TKN_About measure.</t>
+          <t>The production values are quantified using TKN_UOM as unit of measure.</t>
         </is>
       </c>
       <c r="Y830" t="n">
@@ -75723,7 +75723,7 @@
       </c>
       <c r="X837" t="inlineStr">
         <is>
-          <t>The TKN_About rye in TKN_Geo during TKN_Year is represented in the following graph.</t>
+          <t>The TKN_About in TKN_Geo during TKN_Year is represented in the following graph.</t>
         </is>
       </c>
       <c r="Y837" t="n">
@@ -76083,7 +76083,7 @@
       </c>
       <c r="X841" t="inlineStr">
         <is>
-          <t>The maximum TKN_About rye takes place during August with approximately 101 tonnes.</t>
+          <t>The maximum TKN_About takes place during August with approximately 101 tonnes.</t>
         </is>
       </c>
       <c r="Y841" t="n">
@@ -76173,7 +76173,7 @@
       </c>
       <c r="X842" t="inlineStr">
         <is>
-          <t>From August to December the production drastically decreases until it reaches its TKN_About -1 in December.</t>
+          <t>From August to December TKN_About drastically decreases until it reaches its minimum of -1 in December.</t>
         </is>
       </c>
       <c r="Y842" t="n">
@@ -76263,7 +76263,7 @@
       </c>
       <c r="X843" t="inlineStr">
         <is>
-          <t>A figure indicating canola production in TKN_Geo each month in TKN_Year.</t>
+          <t>A figure indicating TKN_About in TKN_Geo each month in TKN_Year.</t>
         </is>
       </c>
       <c r="Y843" t="n">
@@ -76443,7 +76443,7 @@
       </c>
       <c r="X845" t="inlineStr">
         <is>
-          <t>The maximum production occurred in October, at over 97 tonnes; and production fell below 10 tonnes in February, August and September.</t>
+          <t>The TKN_About occurred in October, at over 97 TKN_UOM; and production fell below 10 TKN_UOM in February, August and September.</t>
         </is>
       </c>
       <c r="Y845" t="n">
@@ -76533,7 +76533,7 @@
       </c>
       <c r="X846" t="inlineStr">
         <is>
-          <t>This graph represents the Canadian production TKN_About in TKN_Year.</t>
+          <t>This graph represents the Canadian TKN_About in TKN_Year.</t>
         </is>
       </c>
       <c r="Y846" t="n">
@@ -76803,7 +76803,7 @@
       </c>
       <c r="X849" t="inlineStr">
         <is>
-          <t>Production fluctuates between March and June, after which a rapid decline takes place again, reaching the lowest production values of the year in August at -1.</t>
+          <t>Production fluctuates between March and June, after which a rapid decline takes place again, reaching the lowest TKN_About the year in August at -1.</t>
         </is>
       </c>
       <c r="Y849" t="n">
@@ -77073,7 +77073,7 @@
       </c>
       <c r="X852" t="inlineStr">
         <is>
-          <t>The graph shows the values about the production TKN_About in TKN_Geo over TKN_Year.</t>
+          <t>The graph shows the values about the TKN_About in TKN_Geo over TKN_Year.</t>
         </is>
       </c>
       <c r="Y852" t="n">
@@ -77163,7 +77163,7 @@
       </c>
       <c r="X853" t="inlineStr">
         <is>
-          <t>The values are described using tonnes TKN_About measure.</t>
+          <t>The values are described using TKN_UOM TKN_About measure.</t>
         </is>
       </c>
       <c r="Y853" t="n">
@@ -77343,7 +77343,7 @@
       </c>
       <c r="X855" t="inlineStr">
         <is>
-          <t>It's possible to see how the production value rapidly increased from February to April.</t>
+          <t>It's possible to see TKN_About value rapidly increased from February to April.</t>
         </is>
       </c>
       <c r="Y855" t="n">
@@ -77433,7 +77433,7 @@
       </c>
       <c r="X856" t="inlineStr">
         <is>
-          <t>Then from April to December the production value slightly decreased, showing few light fluctuations.</t>
+          <t>Then from April to TKN_About value slightly decreased, showing few light fluctuations.</t>
         </is>
       </c>
       <c r="Y856" t="n">
@@ -77523,7 +77523,7 @@
       </c>
       <c r="X857" t="inlineStr">
         <is>
-          <t>The accompanying graph shows the TKN_About wheat flower production in tonnes in TKN_Year.</t>
+          <t>The accompanying graph shows the yearly developement TKN_About in TKN_UOM in TKN_Year.</t>
         </is>
       </c>
       <c r="Y857" t="n">
@@ -77613,7 +77613,7 @@
       </c>
       <c r="X858" t="inlineStr">
         <is>
-          <t>The starting point in January is around 30,000 tons, with an increase to peak production  in April with over 43,000 tons and a following decline to just under 35,000 tons.</t>
+          <t>The starting point in January is around 30,000 tons, with an increase TKN_About  in April with over 43,000 tons and a following decline to just under 35,000 tons.</t>
         </is>
       </c>
       <c r="Y858" t="n">
@@ -77703,7 +77703,7 @@
       </c>
       <c r="X859" t="inlineStr">
         <is>
-          <t>After a slight increase the production plummited to just over 20,000 tons in September and fell to its TKN_About around 17,000 tons in December.</t>
+          <t>After a slight TKN_About plummited to just over 20,000 tons in September and fell to its lowest point of around 17,000 tons in December.</t>
         </is>
       </c>
       <c r="Y859" t="n">
@@ -77793,7 +77793,7 @@
       </c>
       <c r="X860" t="inlineStr">
         <is>
-          <t>The graph shows the production TKN_About (in tonnes) in TKN_Geo in the year TKN_Year.</t>
+          <t>The graph shows the TKN_About (in tonnes) in TKN_Geo in the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y860" t="n">
@@ -77973,7 +77973,7 @@
       </c>
       <c r="X862" t="inlineStr">
         <is>
-          <t>While a significant decline in production can be observed from January to February, production continues to rise until April, reaching its TKN_About more than 99 tonnes.</t>
+          <t>While a significant TKN_About can be observed from January to February, production continues to rise until April, reaching its annual maximum of more than 99 tonnes.</t>
         </is>
       </c>
       <c r="Y862" t="n">
@@ -78063,7 +78063,7 @@
       </c>
       <c r="X863" t="inlineStr">
         <is>
-          <t>This is followed by a more or less constant decline, until in December with -32 tonnes TKN_About production is reached.</t>
+          <t>This is followed by a more or less constant decline, until in December with -32 TKN_UOM the TKN_About is reached.</t>
         </is>
       </c>
       <c r="Y863" t="n">
@@ -78153,7 +78153,7 @@
       </c>
       <c r="X864" t="inlineStr">
         <is>
-          <t>The following line chart is about the TKN_About malt in TKN_Geo TKN_Year.</t>
+          <t>The following line chart is about the TKN_About in TKN_Geo TKN_Year.</t>
         </is>
       </c>
       <c r="Y864" t="n">
@@ -78243,7 +78243,7 @@
       </c>
       <c r="X865" t="inlineStr">
         <is>
-          <t>The values are reported using tonnes as TKN_About measure.</t>
+          <t>The values are reported using TKN_UOM as TKN_About measure.</t>
         </is>
       </c>
       <c r="Y865" t="n">
@@ -78333,7 +78333,7 @@
       </c>
       <c r="X866" t="inlineStr">
         <is>
-          <t>It clearly possible to see several peaks and TKN_About production over the year.</t>
+          <t>It clearly possible to see several peaks and dips TKN_About over the year.</t>
         </is>
       </c>
       <c r="Y866" t="n">
@@ -78513,7 +78513,7 @@
       </c>
       <c r="X868" t="inlineStr">
         <is>
-          <t>It's also illustrated a significant TKN_About the production from July to August.</t>
+          <t>It's also illustrated a significant fall TKN_About from July to August.</t>
         </is>
       </c>
       <c r="Y868" t="n">
@@ -78603,7 +78603,7 @@
       </c>
       <c r="X869" t="inlineStr">
         <is>
-          <t>The TKN_About malt in TKN_Geo reported some strong oscillations of the value during TKN_Year.</t>
+          <t>The TKN_About in TKN_Geo reported some strong oscillations of the value during TKN_Year.</t>
         </is>
       </c>
       <c r="Y869" t="n">
@@ -78963,7 +78963,7 @@
       </c>
       <c r="X873" t="inlineStr">
         <is>
-          <t>Furthermore, a marked TKN_About the production value was registered between July and August TKN_Year.</t>
+          <t>Furthermore, a marked drop TKN_About value was registered between July and August TKN_Year.</t>
         </is>
       </c>
       <c r="Y873" t="n">
@@ -79053,7 +79053,7 @@
       </c>
       <c r="X874" t="inlineStr">
         <is>
-          <t>The following graph is about the TKN_About rye in TKN_Geo during TKN_Year; the values are in tonnes.</t>
+          <t>The following graph is about the TKN_About in TKN_Geo during TKN_Year; the values are in tonnes.</t>
         </is>
       </c>
       <c r="Y874" t="n">
@@ -79323,7 +79323,7 @@
       </c>
       <c r="X877" t="inlineStr">
         <is>
-          <t>The graph illustrates the TKN_About rye in canada in the year TKN_Year.</t>
+          <t>The graph illustrates the TKN_About in canada in the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y877" t="n">
@@ -79413,7 +79413,7 @@
       </c>
       <c r="X878" t="inlineStr">
         <is>
-          <t>The production is very low in the first TKN_About the year, before it rises sharply until October, reaching a maximum of 20,000 tonnes.</t>
+          <t>The production is very low in the first third of the year, before it rises sharply until October, reaching a maximum of 20,000 tonnes.</t>
         </is>
       </c>
       <c r="Y878" t="n">
@@ -79503,7 +79503,7 @@
       </c>
       <c r="X879" t="inlineStr">
         <is>
-          <t>Then the production decrease again for the remaining TKN_About the year.</t>
+          <t>Then TKN_About decrease again for the remaining months of the year.</t>
         </is>
       </c>
       <c r="Y879" t="n">
@@ -79593,7 +79593,7 @@
       </c>
       <c r="X880" t="inlineStr">
         <is>
-          <t>This figure represents the Canadian TKN_About rye during TKN_Year.</t>
+          <t>This figure represents the Canadian TKN_About during TKN_Year.</t>
         </is>
       </c>
       <c r="Y880" t="n">
@@ -79863,7 +79863,7 @@
       </c>
       <c r="X883" t="inlineStr">
         <is>
-          <t>Following this there is a sharp increase in June, with the production plateauing throughout August at approximately 65 tonnes.</t>
+          <t>Following this there is a sharp increase in June, with TKN_About plateauing throughout August at approximately 65 tonnes.</t>
         </is>
       </c>
       <c r="Y883" t="n">
@@ -79953,7 +79953,7 @@
       </c>
       <c r="X884" t="inlineStr">
         <is>
-          <t>The highest production can be observed during October with nearly 100.</t>
+          <t>The TKN_About can be observed during October with nearly 100.</t>
         </is>
       </c>
       <c r="Y884" t="n">
@@ -80223,7 +80223,7 @@
       </c>
       <c r="X887" t="inlineStr">
         <is>
-          <t>The diagramm showes the production TKN_About in tonnes over the year TKN_Year.</t>
+          <t>The diagramm showes the TKN_About in TKN_UOM over the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y887" t="n">
@@ -80493,7 +80493,7 @@
       </c>
       <c r="X890" t="inlineStr">
         <is>
-          <t>The highest production is reached in October.</t>
+          <t>The TKN_About is reached in October.</t>
         </is>
       </c>
       <c r="Y890" t="n">
@@ -80673,7 +80673,7 @@
       </c>
       <c r="X892" t="inlineStr">
         <is>
-          <t>The lowst production is reached in August.</t>
+          <t>The TKN_About is reached in August.</t>
         </is>
       </c>
       <c r="Y892" t="n">
@@ -80763,7 +80763,7 @@
       </c>
       <c r="X893" t="inlineStr">
         <is>
-          <t>The production TKN_About in TKN_Geo strongly oscillated over TKN_Year.</t>
+          <t>The TKN_About in TKN_Geo strongly oscillated over TKN_Year.</t>
         </is>
       </c>
       <c r="Y893" t="n">
@@ -81213,7 +81213,7 @@
       </c>
       <c r="X898" t="inlineStr">
         <is>
-          <t>The production trends were fairly smooth for TKN_About the year, rising from January to May, falling from August to November, and staying at or above 47 tonnes until the end of the year.</t>
+          <t>The production trends were fairly smooth for most of the year, rising from January to May, falling from August to November, and staying at or above 47 TKN_UOM until the end of the year.</t>
         </is>
       </c>
       <c r="Y898" t="n">
@@ -81303,7 +81303,7 @@
       </c>
       <c r="X899" t="inlineStr">
         <is>
-          <t>By comparison, June and July showed strong fluctuations in production, and the value dropped to its all-year TKN_About under 4 tonnes in December.</t>
+          <t>By comparison, June and July showed strong fluctuations in production, and the value dropped to its all-year TKN_About under 4 TKN_UOM in December.</t>
         </is>
       </c>
       <c r="Y899" t="n">
@@ -81393,7 +81393,7 @@
       </c>
       <c r="X900" t="inlineStr">
         <is>
-          <t>The given graph shows the malt production in tons in TKN_Geo in TKN_Year.</t>
+          <t>The given graph shows the TKN_About in tons in TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y900" t="n">
@@ -81753,7 +81753,7 @@
       </c>
       <c r="X904" t="inlineStr">
         <is>
-          <t>A graph showing the Canadian TKN_About malt in tonnes over the course of the year TKN_Year.</t>
+          <t>A graph showing the Canadian TKN_About in TKN_UOM over the course of the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y904" t="n">
@@ -82203,7 +82203,7 @@
       </c>
       <c r="X909" t="inlineStr">
         <is>
-          <t>After July, production increases consistently until reaching a maximum in September, before then gradually decreasing until reaching a level similiar to January in December.</t>
+          <t>After TKN_About increases consistently until reaching a maximum in September, before then gradually decreasing until reaching a level similiar to January in December.</t>
         </is>
       </c>
       <c r="Y909" t="n">
@@ -82293,7 +82293,7 @@
       </c>
       <c r="X910" t="inlineStr">
         <is>
-          <t>The accompanying graph shows the fluctuation in oat production in tons in TKN_Geo in the year TKN_Year divided by months.</t>
+          <t>The accompanying graph shows the fluctuation in TKN_About in tons in TKN_Geo in the year TKN_Year divided by months.</t>
         </is>
       </c>
       <c r="Y910" t="n">
@@ -82563,7 +82563,7 @@
       </c>
       <c r="X913" t="inlineStr">
         <is>
-          <t>The graph shows the oats production over the TKN_About TKN_Year.</t>
+          <t>The graph shows the TKN_About over the year of TKN_Year.</t>
         </is>
       </c>
       <c r="Y913" t="n">
@@ -82833,7 +82833,7 @@
       </c>
       <c r="X916" t="inlineStr">
         <is>
-          <t>In this graph, the TKN_About rye in TKN_Geo is illustrated.</t>
+          <t>In this graph, the TKN_About in TKN_Geo is illustrated.</t>
         </is>
       </c>
       <c r="Y916" t="n">
@@ -83103,7 +83103,7 @@
       </c>
       <c r="X919" t="inlineStr">
         <is>
-          <t>During the remaining TKN_About the year, production is comparably lower.</t>
+          <t>During the remaining months TKN_About is comparably lower.</t>
         </is>
       </c>
       <c r="Y919" t="n">
@@ -83193,7 +83193,7 @@
       </c>
       <c r="X920" t="inlineStr">
         <is>
-          <t>The grapg shows the TKN_About rye in canada in the year of TKN_Year.</t>
+          <t>The grapg shows the TKN_About in canada in the year of TKN_Year.</t>
         </is>
       </c>
       <c r="Y920" t="n">
@@ -83373,7 +83373,7 @@
       </c>
       <c r="X922" t="inlineStr">
         <is>
-          <t>In September, the annual TKN_About almost 25,000 tonnes is reached.</t>
+          <t>In September, the annual TKN_About almost 25,000 TKN_UOM is reached.</t>
         </is>
       </c>
       <c r="Y922" t="n">
@@ -83553,7 +83553,7 @@
       </c>
       <c r="X924" t="inlineStr">
         <is>
-          <t>The graph illustrates the productioin TKN_About in tonnes in TKN_Year.</t>
+          <t>The graph illustrates the productioin TKN_About in TKN_UOM in TKN_Year.</t>
         </is>
       </c>
       <c r="Y924" t="n">
@@ -84003,7 +84003,7 @@
       </c>
       <c r="X929" t="inlineStr">
         <is>
-          <t>The TKN_About canola in tonnes in TKN_Geo during TKN_Year is shown in this line chart.</t>
+          <t>The TKN_About in TKN_UOM in TKN_Geo during TKN_Year is shown in this line chart.</t>
         </is>
       </c>
       <c r="Y929" t="n">
@@ -84183,7 +84183,7 @@
       </c>
       <c r="X931" t="inlineStr">
         <is>
-          <t>During the following months production fluctuates in an overall decreasing manner until it reaches its minimum in August.</t>
+          <t>During the following TKN_About fluctuates in an overall decreasing manner until it reaches its minimum in August.</t>
         </is>
       </c>
       <c r="Y931" t="n">
@@ -84363,7 +84363,7 @@
       </c>
       <c r="X933" t="inlineStr">
         <is>
-          <t>This is a canola production graph, showing the amount produced in tonnes for the year TKN_Year.</t>
+          <t>This is a TKN_About graph, showing the amount produced in TKN_UOM for the year TKN_Year.</t>
         </is>
       </c>
       <c r="Y933" t="n">
@@ -84453,7 +84453,7 @@
       </c>
       <c r="X934" t="inlineStr">
         <is>
-          <t>Production stayed within the range of 6 to about 99 tonnes during the year.</t>
+          <t>Production stayed within the range of 6 to about 99 TKN_UOM during the year.</t>
         </is>
       </c>
       <c r="Y934" t="n">
@@ -84543,7 +84543,7 @@
       </c>
       <c r="X935" t="inlineStr">
         <is>
-          <t>Production started just under 41 tonnes in January and rose to above 77 tonnes in March.</t>
+          <t>Production started just under 41 TKN_UOM in January and rose to above 77 TKN_UOM in March.</t>
         </is>
       </c>
       <c r="Y935" t="n">
@@ -84633,7 +84633,7 @@
       </c>
       <c r="X936" t="inlineStr">
         <is>
-          <t>It then dips to under 6 tonnes in August, with acute increases in May and July, before experiencing a continuous rise to above 95 tonnes in December.</t>
+          <t>It then dips to under 6 TKN_UOM in August, with acute increases in May and July, before experiencing a continuous rise to above 95 TKN_UOM in December.</t>
         </is>
       </c>
       <c r="Y936" t="n">
@@ -84723,7 +84723,7 @@
       </c>
       <c r="X937" t="inlineStr">
         <is>
-          <t>This figure represents the production TKN_About in TKN_Geo during TKN_Year.</t>
+          <t>This figure represents the TKN_About in TKN_Geo during TKN_Year.</t>
         </is>
       </c>
       <c r="Y937" t="n">
@@ -84903,7 +84903,7 @@
       </c>
       <c r="X939" t="inlineStr">
         <is>
-          <t>In January production lies at approximately 38 tonnes.</t>
+          <t>In TKN_About lies at approximately 38 tonnes.</t>
         </is>
       </c>
       <c r="Y939" t="n">
@@ -84993,7 +84993,7 @@
       </c>
       <c r="X940" t="inlineStr">
         <is>
-          <t>During the following -101 months the production increases.</t>
+          <t>During the following -101 months TKN_About increases.</t>
         </is>
       </c>
       <c r="Y940" t="n">
@@ -85083,7 +85083,7 @@
       </c>
       <c r="X941" t="inlineStr">
         <is>
-          <t>From March until August the production fluctuates until reaching the minimum during August with -91.</t>
+          <t>From March until August TKN_About fluctuates until reaching the minimum during August with -91.</t>
         </is>
       </c>
       <c r="Y941" t="n">
@@ -85263,7 +85263,7 @@
       </c>
       <c r="X943" t="inlineStr">
         <is>
-          <t>This line chart illustrates the production TKN_About (in tonnes) of TKN_Geo in TKN_Year.</t>
+          <t>This line chart illustrates the TKN_About (in tonnes) of TKN_Geo in TKN_Year.</t>
         </is>
       </c>
       <c r="Y943" t="n">
@@ -85443,7 +85443,7 @@
       </c>
       <c r="X945" t="inlineStr">
         <is>
-          <t>From there on production starts oscillating a lot, having a peak during February, a low in March and reaching the maximum during April.</t>
+          <t>From TKN_About starts oscillating a lot, having a peak during February, a low in March and reaching the maximum during April.</t>
         </is>
       </c>
       <c r="Y945" t="n">
@@ -85533,7 +85533,7 @@
       </c>
       <c r="X946" t="inlineStr">
         <is>
-          <t>There is a sharp decline from April until May, after which production starts fluctuating again until September.</t>
+          <t>There is a sharp decline from April until May, TKN_About starts fluctuating again until September.</t>
         </is>
       </c>
       <c r="Y946" t="n">
@@ -85713,7 +85713,7 @@
       </c>
       <c r="X948" t="inlineStr">
         <is>
-          <t>A very slight increase can be observed for November, after which the production drops in December.</t>
+          <t>A very slight increase can be observed for November, after TKN_About drops in December.</t>
         </is>
       </c>
       <c r="Y948" t="n">
@@ -85803,7 +85803,7 @@
       </c>
       <c r="X949" t="inlineStr">
         <is>
-          <t>As it's shown in the graph, the production value TKN_About in TKN_Geo during TKN_Year has been strongly fluctuating.</t>
+          <t>As it's shown in the graph, the TKN_About in TKN_Geo during TKN_Year has been strongly fluctuating.</t>
         </is>
       </c>
       <c r="Y949" t="n">
@@ -86073,7 +86073,7 @@
       </c>
       <c r="X952" t="inlineStr">
         <is>
-          <t>At the same time, the months with less production TKN_About have been January and July.</t>
+          <t>At the same time, the months with less TKN_About have been January and July.</t>
         </is>
       </c>
       <c r="Y952" t="n">
@@ -86163,7 +86163,7 @@
       </c>
       <c r="X953" t="inlineStr">
         <is>
-          <t>This figure shows the Canadian production TKN_About of TKN_Year.</t>
+          <t>This figure shows the Canadian TKN_About of TKN_Year.</t>
         </is>
       </c>
       <c r="Y953" t="n">
@@ -86523,7 +86523,7 @@
       </c>
       <c r="X957" t="inlineStr">
         <is>
-          <t>The maximum production TKN_About is taking place in April at above 100 tonnes.</t>
+          <t>The maximum TKN_About is taking place in April at above 100 tonnes.</t>
         </is>
       </c>
       <c r="Y957" t="n">
@@ -86703,7 +86703,7 @@
       </c>
       <c r="X959" t="inlineStr">
         <is>
-          <t>During the following months production fluctuates until a sharp increase in observed for October, reaching nearly 95 tonnes.</t>
+          <t>During the TKN_About fluctuates until a sharp increase in observed for October, reaching nearly 95 tonnes.</t>
         </is>
       </c>
       <c r="Y959" t="n">
